--- a/QuantLibXL/Data2/XLS/JPY/JPY_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY/JPY_MxContributor.xlsx
@@ -1407,270 +1407,292 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.11000000000000001</v>
         <stp/>
         <stp>_x000C_JPY3M12X15F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U24" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.11000000000000001</v>
         <stp/>
         <stp>_x000C_JPY3M12X15F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V24" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.13500000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M2X8F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W19" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.13500000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M3X9F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W20" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.13500000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M3X9F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X20" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.13500000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M2X8F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X19" s="7"/>
       </tp>
       <tp>
-        <v>6.4394108000000005E-2</v>
+        <v>6.7003989E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T8" s="7"/>
       </tp>
       <tp>
-        <v>6.3551431000000005E-2</v>
+        <v>6.6130796999999991E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T9" s="7"/>
       </tp>
       <tp>
-        <v>6.4388445000000002E-2</v>
+        <v>6.6995003999999997E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T7" s="7"/>
       </tp>
       <tp>
-        <v>6.4385614000000008E-2</v>
+        <v>6.6984646000000009E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T6" s="7"/>
       </tp>
       <tp>
-        <v>5.1780822000000004E-2</v>
+        <v>6.4109588999999995E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T14" s="7"/>
       </tp>
       <tp>
-        <v>6.3796638000000003E-2</v>
+        <v>6.6338417999999996E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T11" s="7"/>
       </tp>
       <tp>
-        <v>4.6849315000000002E-2</v>
+        <v>7.890411E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T27" s="7"/>
       </tp>
       <tp>
-        <v>6.1643834999999994E-2</v>
+        <v>6.6575341999999996E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T13" s="7"/>
       </tp>
       <tp>
-        <v>6.3639794E-2</v>
+        <v>6.6216514000000004E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T10" s="7"/>
       </tp>
       <tp>
-        <v>3.4520547999999998E-2</v>
+        <v>5.9178082E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T26" s="7"/>
       </tp>
       <tp>
-        <v>6.4109588999999995E-2</v>
+        <v>6.6575342999999995E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T12" s="7"/>
       </tp>
       <tp>
-        <v>3.6986300999999999E-2</v>
+        <v>5.6712328999999992E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T23" s="7"/>
       </tp>
       <tp>
-        <v>0.110958904</v>
+        <v>0.278630137</v>
         <stp/>
         <stp xml:space="preserve">	JPYON7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T31" s="7"/>
       </tp>
       <tp>
-        <v>4.1917808000000001E-2</v>
+        <v>5.9178082E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T17" s="7"/>
       </tp>
       <tp>
-        <v>8.3835616000000002E-2</v>
+        <v>0.22191780799999999</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T30" s="7"/>
       </tp>
       <tp>
-        <v>4.4383562000000001E-2</v>
+        <v>6.1643835999999994E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T16" s="7"/>
       </tp>
       <tp>
-        <v>6.1643835999999994E-2</v>
+        <v>0.16520547899999999</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T29" s="7"/>
       </tp>
       <tp>
-        <v>4.6849315000000002E-2</v>
+        <v>6.1643835999999994E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T15" s="7"/>
       </tp>
       <tp>
-        <v>4.1917808000000001E-2</v>
+        <v>0.115890411</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T28" s="7"/>
       </tp>
       <tp>
-        <v>3.9452055E-2</v>
+        <v>5.6712328999999992E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T20" s="7"/>
       </tp>
       <tp>
-        <v>0.17260274</v>
+        <v>0.38712328800000001</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T33" s="7"/>
       </tp>
       <tp>
-        <v>0.14301369899999999</v>
+        <v>0.33534246600000001</v>
         <stp/>
         <stp xml:space="preserve">	JPYON8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T32" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.10500000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M6X9F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U20" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.10500000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M5X8F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U19" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.10500000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M5X8F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V19" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.10500000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M6X9F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V20" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.1</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M3X6F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V17" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.1</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M2X5F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U16" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.10500000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M4X7F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V18" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.1</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M1X4F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U15" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.1</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M1X4F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V15" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.10500000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M4X7F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U18" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.1</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M2X5F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V16" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.1</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M3X6F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U17" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.13500000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M1X7F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X18" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.13500000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M1X7F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1679,42 +1701,42 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.83342465799999998</v>
+        <v>1.203287671</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON25YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S38" s="7"/>
       </tp>
       <tp>
-        <v>0.70767123300000001</v>
+        <v>1.052876712</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON20YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S37" s="7"/>
       </tp>
       <tp>
-        <v>0.90246575300000009</v>
+        <v>1.2772602740000001</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON30YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S39" s="7"/>
       </tp>
       <tp>
-        <v>0.47095890400000001</v>
+        <v>0.78410958900000005</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON15YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S36" s="7"/>
       </tp>
       <tp>
-        <v>0.204657534</v>
+        <v>0.44630137000000003</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S34" s="7"/>
       </tp>
       <tp>
-        <v>0.29835616399999998</v>
+        <v>0.57698630100000003</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1723,174 +1745,176 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>6.4394108000000005E-2</v>
+        <v>6.7003989E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S8" s="7"/>
       </tp>
       <tp>
-        <v>6.3551431000000005E-2</v>
+        <v>6.6130796999999991E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S9" s="7"/>
       </tp>
       <tp>
-        <v>6.4388445000000002E-2</v>
+        <v>6.6995003999999997E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S7" s="7"/>
       </tp>
       <tp>
-        <v>6.4385614000000008E-2</v>
+        <v>6.6984646000000009E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S6" s="7"/>
       </tp>
       <tp>
-        <v>5.1780822000000004E-2</v>
+        <v>6.4109588999999995E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S14" s="7"/>
       </tp>
       <tp>
-        <v>6.3796638000000003E-2</v>
+        <v>6.6338417999999996E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S11" s="7"/>
       </tp>
       <tp>
-        <v>4.6849315000000002E-2</v>
+        <v>7.890411E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S27" s="7"/>
       </tp>
       <tp>
-        <v>6.1643834999999994E-2</v>
+        <v>6.6575341999999996E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S13" s="7"/>
       </tp>
       <tp>
-        <v>6.3639794E-2</v>
+        <v>6.6216514000000004E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S10" s="7"/>
       </tp>
       <tp>
-        <v>3.4520547999999998E-2</v>
+        <v>5.9178082E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S26" s="7"/>
       </tp>
       <tp>
-        <v>6.4109588999999995E-2</v>
+        <v>6.6575342999999995E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S12" s="7"/>
       </tp>
       <tp>
-        <v>3.6986300999999999E-2</v>
+        <v>5.6712328999999992E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S23" s="7"/>
       </tp>
       <tp>
-        <v>0.110958904</v>
+        <v>0.278630137</v>
         <stp/>
         <stp xml:space="preserve">	JPYON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S31" s="7"/>
       </tp>
       <tp>
-        <v>4.1917808000000001E-2</v>
+        <v>5.9178082E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S17" s="7"/>
       </tp>
       <tp>
-        <v>8.3835616000000002E-2</v>
+        <v>0.22191780799999999</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S30" s="7"/>
       </tp>
       <tp>
-        <v>4.4383562000000001E-2</v>
+        <v>6.1643835999999994E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S16" s="7"/>
       </tp>
       <tp>
-        <v>6.1643835999999994E-2</v>
+        <v>0.16520547899999999</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S29" s="7"/>
       </tp>
       <tp>
-        <v>4.6849315000000002E-2</v>
+        <v>6.1643835999999994E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S15" s="7"/>
       </tp>
       <tp>
-        <v>4.1917808000000001E-2</v>
+        <v>0.115890411</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S28" s="7"/>
       </tp>
       <tp>
-        <v>3.9452055E-2</v>
+        <v>5.6712328999999992E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S20" s="7"/>
       </tp>
       <tp>
-        <v>0.17260274</v>
+        <v>0.38712328800000001</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S33" s="7"/>
       </tp>
       <tp>
-        <v>0.14301369899999999</v>
+        <v>0.33534246600000001</v>
         <stp/>
         <stp xml:space="preserve">	JPYON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S32" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.47095890400000001</v>
+        <v>0.78410958900000005</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON15YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T36" s="7"/>
       </tp>
       <tp>
-        <v>0.204657534</v>
+        <v>0.44630137000000003</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T34" s="7"/>
       </tp>
       <tp>
-        <v>0.29835616399999998</v>
+        <v>0.57698630100000003</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T35" s="7"/>
       </tp>
       <tp>
-        <v>0.90246575300000009</v>
+        <v>1.2772602740000001</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON30YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T39" s="7"/>
       </tp>
       <tp>
-        <v>0.83342465799999998</v>
+        <v>1.203287671</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON25YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T38" s="7"/>
       </tp>
       <tp>
-        <v>0.70767123300000001</v>
+        <v>1.052876712</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1899,121 +1923,121 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.18937995099999999</v>
+        <v>0.159616112</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W8" s="7"/>
       </tp>
       <tp>
-        <v>0.18925960800000002</v>
+        <v>0.159542034</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W9" s="7"/>
       </tp>
       <tp>
-        <v>0.18939384399999998</v>
+        <v>0.159624602</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W7" s="7"/>
       </tp>
       <tp>
-        <v>0.18940879399999999</v>
+        <v>0.15963375399999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W6" s="7"/>
       </tp>
       <tp>
-        <v>0.1623</v>
+        <v>0.1479</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W14" s="7"/>
       </tp>
       <tp>
-        <v>0.188149292</v>
+        <v>0.15892463100000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W11" s="7"/>
       </tp>
       <tp>
-        <v>0.17780000000000001</v>
+        <v>0.15389999999999998</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W13" s="7"/>
       </tp>
       <tp>
-        <v>0.18888537399999999</v>
+        <v>0.15931113299999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W10" s="7"/>
       </tp>
       <tp>
-        <v>0.18660000000000002</v>
+        <v>0.15789999999999998</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W12" s="7"/>
       </tp>
       <tp>
-        <v>0.1416</v>
+        <v>0.13930000000000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W17" s="7"/>
       </tp>
       <tp>
-        <v>0.1464</v>
+        <v>0.14199999999999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W16" s="7"/>
       </tp>
       <tp>
-        <v>0.15260000000000001</v>
+        <v>0.14319999999999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W15" s="7"/>
       </tp>
       <tp>
-        <v>0.284188261</v>
+        <v>0.47913594899999995</v>
         <stp/>
         <stp>_x0008_JPY3M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V33" s="7"/>
       </tp>
       <tp>
-        <v>0.23929603400000002</v>
+        <v>0.41671158699999999</v>
         <stp/>
         <stp>_x0008_JPY3M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V32" s="7"/>
       </tp>
       <tp>
-        <v>7.9546719000000002E-2</v>
+        <v>0.13447515299999999</v>
         <stp/>
         <stp>_x0008_JPY3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V27" s="7"/>
       </tp>
       <tp>
-        <v>7.7047221999999999E-2</v>
+        <v>0.11197626000000001</v>
         <stp/>
         <stp>_x0008_JPY3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V26" s="7"/>
       </tp>
       <tp>
-        <v>0.114441151</v>
+        <v>0.229400192</v>
         <stp/>
         <stp>_x0008_JPY3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V29" s="7"/>
       </tp>
       <tp>
-        <v>8.9477161999999999E-2</v>
+        <v>0.174438125</v>
         <stp/>
         <stp>_x0008_JPY3M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V28" s="7"/>
       </tp>
       <tp>
-        <v>0.19436832600000001</v>
+        <v>0.35428695900000001</v>
         <stp/>
         <stp>_x0008_JPY3M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V31" s="7"/>
       </tp>
       <tp>
-        <v>0.151904974</v>
+        <v>0.28932610400000003</v>
         <stp/>
         <stp>_x0008_JPY3M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V30" s="7"/>
@@ -2021,37 +2045,37 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>1.048682967</v>
+        <v>1.403951521</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V39" s="7"/>
       </tp>
       <tp>
-        <v>0.97843234700000004</v>
+        <v>1.3201884480000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V38" s="7"/>
       </tp>
       <tp>
-        <v>0.84870438999999998</v>
+        <v>1.1715085730000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V37" s="7"/>
       </tp>
       <tp>
-        <v>0.60626695100000005</v>
+        <v>0.89653066999999997</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V36" s="7"/>
       </tp>
       <tp>
-        <v>0.43418598700000005</v>
+        <v>0.68545266199999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V35" s="7"/>
       </tp>
       <tp>
-        <v>0.329079609</v>
+        <v>0.54409513200000004</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V34" s="7"/>
@@ -2059,103 +2083,103 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.4711587E-2</v>
+        <v>9.7568517999999993E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U8" s="7"/>
       </tp>
       <tp>
-        <v>2.5315512000000002E-2</v>
+        <v>9.764109700000001E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U9" s="7"/>
       </tp>
       <tp>
-        <v>2.4641736000000001E-2</v>
+        <v>9.7560094E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U7" s="7"/>
       </tp>
       <tp>
-        <v>2.4566603999999999E-2</v>
+        <v>9.7551039999999992E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U6" s="7"/>
       </tp>
       <tp>
-        <v>6.9900000000000004E-2</v>
+        <v>0.10069999999999998</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U14" s="7"/>
       </tp>
       <tp>
-        <v>3.0788321E-2</v>
+        <v>9.8229220000000006E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U11" s="7"/>
       </tp>
       <tp>
-        <v>6.0299999999999999E-2</v>
+        <v>0.1014</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U13" s="7"/>
       </tp>
       <tp>
-        <v>2.7164948000000001E-2</v>
+        <v>9.786186999999999E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U10" s="7"/>
       </tp>
       <tp>
-        <v>3.8400000000000004E-2</v>
+        <v>9.9199999999999997E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U12" s="7"/>
       </tp>
       <tp>
-        <v>0.34249999999999997</v>
+        <v>0.54</v>
         <stp/>
         <stp>_x0008_JPY6M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X33" s="7"/>
       </tp>
       <tp>
-        <v>0.28999999999999998</v>
+        <v>0.47249999999999998</v>
         <stp/>
         <stp>_x0008_JPY6M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X32" s="7"/>
       </tp>
       <tp>
-        <v>0.1125</v>
+        <v>0.17250000000000001</v>
         <stp/>
         <stp>_x0008_JPY6M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X27" s="7"/>
       </tp>
       <tp>
-        <v>0.11000000000000001</v>
+        <v>0.15</v>
         <stp/>
         <stp>_x0008_JPY6M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X26" s="7"/>
       </tp>
       <tp>
-        <v>0.155</v>
+        <v>0.27250000000000002</v>
         <stp/>
         <stp>_x0008_JPY6M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X29" s="7"/>
       </tp>
       <tp>
-        <v>0.1275</v>
+        <v>0.215</v>
         <stp/>
         <stp>_x0008_JPY6M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X28" s="7"/>
       </tp>
       <tp>
-        <v>0.24</v>
+        <v>0.40499999999999997</v>
         <stp/>
         <stp>_x0008_JPY6M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X31" s="7"/>
       </tp>
       <tp>
-        <v>0.19500000000000001</v>
+        <v>0.33750000000000002</v>
         <stp/>
         <stp>_x0008_JPY6M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X30" s="7"/>
@@ -2163,37 +2187,37 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>1.137500046</v>
+        <v>1.4724999999999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X39" s="7"/>
       </tp>
       <tp>
-        <v>1.067500047</v>
+        <v>1.3925000000000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X38" s="7"/>
       </tp>
       <tp>
-        <v>0.93750005400000003</v>
+        <v>1.2375</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X37" s="7"/>
       </tp>
       <tp>
-        <v>0.69250003599999999</v>
+        <v>0.96250000000000002</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X36" s="7"/>
       </tp>
       <tp>
-        <v>0.50750003300000002</v>
+        <v>0.75</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X35" s="7"/>
       </tp>
       <tp>
-        <v>0.39500000000000002</v>
+        <v>0.60750000000000004</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X34" s="7"/>
@@ -2201,7 +2225,7 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.11499999999999999</v>
+        <v>0.14250000000000002</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M18M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W25" s="7"/>
@@ -2209,49 +2233,49 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.28999999999999998</v>
+        <v>0.47249999999999998</v>
         <stp/>
         <stp>_x0008_JPY6M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W32" s="7"/>
       </tp>
       <tp>
-        <v>0.34249999999999997</v>
+        <v>0.54</v>
         <stp/>
         <stp>_x0008_JPY6M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W33" s="7"/>
       </tp>
       <tp>
-        <v>0.11000000000000001</v>
+        <v>0.15</v>
         <stp/>
         <stp>_x0008_JPY6M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W26" s="7"/>
       </tp>
       <tp>
-        <v>0.1125</v>
+        <v>0.17250000000000001</v>
         <stp/>
         <stp>_x0008_JPY6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W27" s="7"/>
       </tp>
       <tp>
-        <v>0.19500000000000001</v>
+        <v>0.33750000000000002</v>
         <stp/>
         <stp>_x0008_JPY6M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W30" s="7"/>
       </tp>
       <tp>
-        <v>0.24</v>
+        <v>0.40499999999999997</v>
         <stp/>
         <stp>_x0008_JPY6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W31" s="7"/>
       </tp>
       <tp>
-        <v>0.1275</v>
+        <v>0.215</v>
         <stp/>
         <stp>_x0008_JPY6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W28" s="7"/>
       </tp>
       <tp>
-        <v>0.155</v>
+        <v>0.27250000000000002</v>
         <stp/>
         <stp>_x0008_JPY6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W29" s="7"/>
@@ -2259,7 +2283,7 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>8.8320749000000004E-2</v>
+        <v>0.108213158</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M18M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U25" s="7"/>
@@ -2267,319 +2291,325 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0.23929603400000002</v>
+        <v>0.41671158699999999</v>
         <stp/>
         <stp>_x0008_JPY3M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U32" s="7"/>
       </tp>
       <tp>
-        <v>0.284188261</v>
+        <v>0.47913594899999995</v>
         <stp/>
         <stp>_x0008_JPY3M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U33" s="7"/>
       </tp>
       <tp>
-        <v>7.7047221999999999E-2</v>
+        <v>0.11197626000000001</v>
         <stp/>
         <stp>_x0008_JPY3M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U26" s="7"/>
       </tp>
       <tp>
-        <v>7.9546719000000002E-2</v>
+        <v>0.13447515299999999</v>
         <stp/>
         <stp>_x0008_JPY3M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U27" s="7"/>
       </tp>
       <tp>
-        <v>0.151904974</v>
+        <v>0.28932610400000003</v>
         <stp/>
         <stp>_x0008_JPY3M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U30" s="7"/>
       </tp>
       <tp>
-        <v>0.19436832600000001</v>
+        <v>0.35428695900000001</v>
         <stp/>
         <stp>_x0008_JPY3M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U31" s="7"/>
       </tp>
       <tp>
-        <v>8.9477161999999999E-2</v>
+        <v>0.174438125</v>
         <stp/>
         <stp>_x0008_JPY3M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U28" s="7"/>
       </tp>
       <tp>
-        <v>0.114441151</v>
+        <v>0.229400192</v>
         <stp/>
         <stp>_x0008_JPY3M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U29" s="7"/>
       </tp>
       <tp>
-        <v>0.11499999999999999</v>
+        <v>0.14250000000000002</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M18M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X25" s="7"/>
       </tp>
       <tp>
-        <v>8.8320749000000004E-2</v>
+        <v>0.108213158</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M18M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V25" s="7"/>
       </tp>
       <tp>
-        <v>1.048682967</v>
+        <v>1.403951521</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U39" s="7"/>
       </tp>
       <tp>
-        <v>0.97843234700000004</v>
+        <v>1.3201884480000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U38" s="7"/>
       </tp>
       <tp>
-        <v>0.84870438999999998</v>
+        <v>1.1715085730000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U37" s="7"/>
       </tp>
       <tp>
-        <v>0.60626695100000005</v>
+        <v>0.89653066999999997</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U36" s="7"/>
       </tp>
       <tp>
-        <v>0.329079609</v>
+        <v>0.54409513200000004</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U34" s="7"/>
       </tp>
       <tp>
-        <v>0.43418598700000005</v>
+        <v>0.68545266199999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U35" s="7"/>
       </tp>
       <tp>
-        <v>0.18937995099999999</v>
+        <v>0.159616112</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X8" s="7"/>
       </tp>
       <tp>
-        <v>0.18925960800000002</v>
+        <v>0.159542034</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X9" s="7"/>
       </tp>
       <tp>
-        <v>0.18939384399999998</v>
+        <v>0.159624602</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X7" s="7"/>
       </tp>
       <tp>
-        <v>0.18940879399999999</v>
+        <v>0.15963375399999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X6" s="7"/>
       </tp>
       <tp>
-        <v>0.1623</v>
+        <v>0.1479</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X14" s="7"/>
       </tp>
       <tp>
-        <v>0.188149292</v>
+        <v>0.15892463100000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X11" s="7"/>
       </tp>
       <tp>
-        <v>0.17780000000000001</v>
+        <v>0.15389999999999998</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X13" s="7"/>
       </tp>
       <tp>
-        <v>0.18888537399999999</v>
+        <v>0.15931113299999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X10" s="7"/>
       </tp>
       <tp>
-        <v>0.18660000000000002</v>
+        <v>0.15789999999999998</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X12" s="7"/>
       </tp>
       <tp>
-        <v>0.1416</v>
+        <v>0.13930000000000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X17" s="7"/>
       </tp>
       <tp>
-        <v>0.1464</v>
+        <v>0.14199999999999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X16" s="7"/>
       </tp>
       <tp>
-        <v>0.15260000000000001</v>
+        <v>0.14319999999999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X15" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>1.137500046</v>
+        <v>1.4724999999999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W39" s="7"/>
       </tp>
       <tp>
-        <v>1.067500047</v>
+        <v>1.3925000000000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W38" s="7"/>
       </tp>
       <tp>
-        <v>0.93750005400000003</v>
+        <v>1.2375</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W37" s="7"/>
       </tp>
       <tp>
-        <v>0.69250003599999999</v>
+        <v>0.96250000000000002</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W36" s="7"/>
       </tp>
       <tp>
-        <v>0.39500000000000002</v>
+        <v>0.60750000000000004</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W34" s="7"/>
       </tp>
       <tp>
-        <v>0.50750003300000002</v>
+        <v>0.75</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W35" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>2.4711587E-2</v>
+        <v>9.7568517999999993E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V8" s="7"/>
       </tp>
       <tp>
-        <v>2.5315512000000002E-2</v>
+        <v>9.764109700000001E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V9" s="7"/>
       </tp>
       <tp>
-        <v>2.4641736000000001E-2</v>
+        <v>9.7560094E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V7" s="7"/>
       </tp>
       <tp>
-        <v>2.4566603999999999E-2</v>
+        <v>9.7551039999999992E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V6" s="7"/>
       </tp>
       <tp>
-        <v>6.9900000000000004E-2</v>
+        <v>0.10069999999999998</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V14" s="7"/>
       </tp>
       <tp>
-        <v>3.0788321E-2</v>
+        <v>9.8229220000000006E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V11" s="7"/>
       </tp>
       <tp>
-        <v>6.0299999999999999E-2</v>
+        <v>0.1014</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V13" s="7"/>
       </tp>
       <tp>
-        <v>2.7164948000000001E-2</v>
+        <v>9.786186999999999E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V10" s="7"/>
       </tp>
       <tp>
-        <v>3.8400000000000004E-2</v>
+        <v>9.9199999999999997E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V12" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>3.4520547999999998E-2</v>
+        <v>5.6712328999999992E-2</v>
         <stp/>
         <stp>_x000B_JPYON1Y6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="T25" s="7"/>
       </tp>
       <tp>
-        <v>3.4520547999999998E-2</v>
+        <v>5.6712328999999992E-2</v>
         <stp/>
         <stp>_x000B_JPYON1Y6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="S25" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.13500000000000001</v>
         <stp/>
         <stp>_x000B_JPY6M5X11F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W22" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.13500000000000001</v>
         <stp/>
         <stp>_x000B_JPY6M6X12F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X23" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.13500000000000001</v>
         <stp/>
         <stp>_x000B_JPY6M4X10F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W21" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.13500000000000001</v>
         <stp/>
         <stp>_x000B_JPY6M4X10F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X21" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.13500000000000001</v>
         <stp/>
         <stp>_x000B_JPY6M6X12F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W23" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.13500000000000001</v>
         <stp/>
         <stp>_x000B_JPY6M5X11F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X22" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.11000000000000001</v>
         <stp/>
         <stp>_x000B_JPY3M9X12F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V23" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.11000000000000001</v>
         <stp/>
         <stp>_x000B_JPY3M9X12F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="U23" s="7"/>
@@ -2679,14 +2709,14 @@
       <sheetData sheetId="9">
         <row r="7">
           <cell r="D7" t="str">
-            <v>G5</v>
+            <v>N5</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="7">
           <cell r="D7" t="str">
-            <v>G5</v>
+            <v>N5</v>
           </cell>
         </row>
       </sheetData>
@@ -3151,9 +3181,7 @@
       <c r="C4" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="129">
-        <v>42023.749166666668</v>
-      </c>
+      <c r="D4" s="129"/>
       <c r="E4" s="128"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3184,8 +3212,8 @@
         <v>13</v>
       </c>
       <c r="D5" s="129">
-        <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42023</v>
+        <f>_xll.qlCalendarAdjust(Calendar,_xll.qlSettingsEvaluationDate(Trigger))</f>
+        <v>42146</v>
       </c>
       <c r="E5" s="128"/>
       <c r="F5" s="2"/>
@@ -3558,7 +3586,7 @@
         <v>114</v>
       </c>
       <c r="D17" s="135" t="b">
-        <f>_xll.qlCalendarIsHoliday(LocalCalendar,_xll.qlCalendarAdvance(LiborCalendar,EvaluationDate,SettlementDays&amp;"D","f",FALSE,Trigger))</f>
+        <f>_xll.qlCalendarIsHoliday(LocalCalendar,_xll.qlCalendarAdvance(LiborCalendar,_xll.qlSettingsEvaluationDate(Trigger),SettlementDays&amp;"D","f",FALSE,Trigger))</f>
         <v>0</v>
       </c>
       <c r="E17" s="128"/>
@@ -3625,7 +3653,7 @@
       </c>
       <c r="D19" s="137">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="E19" s="128"/>
       <c r="F19" s="2"/>
@@ -5923,6 +5951,11 @@
       <c r="Z100" s="123"/>
     </row>
   </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="D5" name="Range3"/>
+    <protectedRange sqref="D6" name="Range2"/>
+    <protectedRange sqref="D4" name="Range1"/>
+  </protectedRanges>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D16">
       <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar,Australia,China,HongKong::HKEx"</formula1>
@@ -5937,7 +5970,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D12 D6 D18:D19 D17" unlockedFormula="1"/>
+    <ignoredError sqref="D12 D6 D18:D19" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6342,11 +6375,11 @@
       </c>
       <c r="H6" s="17">
         <f>'ON Pricing'!I6*100</f>
-        <v>6.4385613817052878E-2</v>
+        <v>6.6984645538078119E-2</v>
       </c>
       <c r="I6" s="17">
         <f>H6</f>
-        <v>6.4385613817052878E-2</v>
+        <v>6.6984645538078119E-2</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>58</v>
@@ -6357,11 +6390,11 @@
       </c>
       <c r="L6" s="17">
         <f>'3M Pricing'!I6*100</f>
-        <v>2.4566604161018586E-2</v>
+        <v>9.7551040174748652E-2</v>
       </c>
       <c r="M6" s="17">
         <f>L6</f>
-        <v>2.4566604161018586E-2</v>
+        <v>9.7551040174748652E-2</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>58</v>
@@ -6372,36 +6405,36 @@
       </c>
       <c r="P6" s="17">
         <f>'6M Pricing'!I6*100</f>
-        <v>0.18940879399272625</v>
+        <v>0.15963375351220133</v>
       </c>
       <c r="Q6" s="17">
         <f>P6</f>
-        <v>0.18940879399272625</v>
+        <v>0.15963375351220133</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="17">
         <f>ABS(_xll.RtGet(SourceAlias,$G6,BID)-H6)</f>
-        <v>1.8294712966770987E-10</v>
+        <v>4.6192188962734804E-10</v>
       </c>
       <c r="T6" s="17">
         <f>ABS(_xll.RtGet(SourceAlias,$G6,ASK)-I6)</f>
-        <v>1.8294712966770987E-10</v>
+        <v>4.6192188962734804E-10</v>
       </c>
       <c r="U6" s="17">
         <f>ABS(_xll.RtGet(SourceAlias,$K6,BID)-L6)</f>
-        <v>1.6101858735240171E-10</v>
+        <v>1.7474865998678979E-10</v>
       </c>
       <c r="V6" s="17">
         <f>ABS(_xll.RtGet(SourceAlias,$K6,ASK)-M6)</f>
-        <v>1.6101858735240171E-10</v>
+        <v>1.7474865998678979E-10</v>
       </c>
       <c r="W6" s="17">
         <f>ABS(_xll.RtGet(SourceAlias,$O6,BID)-P6)</f>
-        <v>7.2737371681341756E-12</v>
+        <v>4.8779866257397941E-10</v>
       </c>
       <c r="X6" s="17">
         <f>ABS(_xll.RtGet(SourceAlias,$O6,ASK)-Q6)</f>
-        <v>7.2737371681341756E-12</v>
+        <v>4.8779866257397941E-10</v>
       </c>
       <c r="Y6" s="66" t="s">
         <v>103</v>
@@ -6461,11 +6494,11 @@
       </c>
       <c r="H7" s="19">
         <f>'ON Pricing'!I7*100</f>
-        <v>6.4388445258023452E-2</v>
+        <v>6.6995004349590381E-2</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ref="I7:I39" si="3">H7</f>
-        <v>6.4388445258023452E-2</v>
+        <v>6.6995004349590381E-2</v>
       </c>
       <c r="J7" s="24" t="s">
         <v>59</v>
@@ -6476,11 +6509,11 @@
       </c>
       <c r="L7" s="19">
         <f>'3M Pricing'!I7*100</f>
-        <v>2.4641735790604798E-2</v>
+        <v>9.7560093827559091E-2</v>
       </c>
       <c r="M7" s="19">
         <f t="shared" ref="M7:M39" si="4">L7</f>
-        <v>2.4641735790604798E-2</v>
+        <v>9.7560093827559091E-2</v>
       </c>
       <c r="N7" s="24" t="s">
         <v>59</v>
@@ -6491,36 +6524,36 @@
       </c>
       <c r="P7" s="19">
         <f>'6M Pricing'!I7*100</f>
-        <v>0.18939384423715666</v>
+        <v>0.15962460235468473</v>
       </c>
       <c r="Q7" s="19">
         <f t="shared" ref="Q7:Q39" si="5">P7</f>
-        <v>0.18939384423715666</v>
+        <v>0.15962460235468473</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G7,BID)-H7)</f>
-        <v>2.5802344982839287E-10</v>
+        <v>3.4959038441861878E-10</v>
       </c>
       <c r="T7" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G7,ASK)-I7)</f>
-        <v>2.5802344982839287E-10</v>
+        <v>3.4959038441861878E-10</v>
       </c>
       <c r="U7" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K7,BID)-L7)</f>
-        <v>2.0939520256613164E-10</v>
+        <v>1.7244090877444052E-10</v>
       </c>
       <c r="V7" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K7,ASK)-M7)</f>
-        <v>2.0939520256613164E-10</v>
+        <v>1.7244090877444052E-10</v>
       </c>
       <c r="W7" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O7,BID)-P7)</f>
-        <v>2.3715668318047278E-10</v>
+        <v>3.5468472603383816E-10</v>
       </c>
       <c r="X7" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O7,ASK)-Q7)</f>
-        <v>2.3715668318047278E-10</v>
+        <v>3.5468472603383816E-10</v>
       </c>
       <c r="Y7" s="66" t="s">
         <v>103</v>
@@ -6580,11 +6613,11 @@
       </c>
       <c r="H8" s="21">
         <f>'ON Pricing'!I8*100</f>
-        <v>6.4394108123755345E-2</v>
+        <v>6.7003988694525063E-2</v>
       </c>
       <c r="I8" s="21">
         <f t="shared" si="3"/>
-        <v>6.4394108123755345E-2</v>
+        <v>6.7003988694525063E-2</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>60</v>
@@ -6595,11 +6628,11 @@
       </c>
       <c r="L8" s="21">
         <f>'3M Pricing'!I8*100</f>
-        <v>2.4711586896764004E-2</v>
+        <v>9.7568517936963417E-2</v>
       </c>
       <c r="M8" s="21">
         <f t="shared" si="4"/>
-        <v>2.4711586896764004E-2</v>
+        <v>9.7568517936963417E-2</v>
       </c>
       <c r="N8" s="25" t="s">
         <v>60</v>
@@ -6610,36 +6643,36 @@
       </c>
       <c r="P8" s="21">
         <f>'6M Pricing'!I8*100</f>
-        <v>0.18937995117696005</v>
+        <v>0.15961611228743067</v>
       </c>
       <c r="Q8" s="21">
         <f t="shared" si="5"/>
-        <v>0.18937995117696005</v>
+        <v>0.15961611228743067</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="21">
         <f>ABS(_xll.RtGet(SourceAlias,$G8,BID)-H8)</f>
-        <v>1.2375533930963911E-10</v>
+        <v>3.0547493701238437E-10</v>
       </c>
       <c r="T8" s="21">
         <f>ABS(_xll.RtGet(SourceAlias,$G8,ASK)-I8)</f>
-        <v>1.2375533930963911E-10</v>
+        <v>3.0547493701238437E-10</v>
       </c>
       <c r="U8" s="21">
         <f>ABS(_xll.RtGet(SourceAlias,$K8,BID)-L8)</f>
-        <v>1.0323599614059376E-10</v>
+        <v>6.3036575959074526E-11</v>
       </c>
       <c r="V8" s="21">
         <f>ABS(_xll.RtGet(SourceAlias,$K8,ASK)-M8)</f>
-        <v>1.0323599614059376E-10</v>
+        <v>6.3036575959074526E-11</v>
       </c>
       <c r="W8" s="21">
         <f>ABS(_xll.RtGet(SourceAlias,$O8,BID)-P8)</f>
-        <v>1.7696005771838941E-10</v>
+        <v>2.8743066260439321E-10</v>
       </c>
       <c r="X8" s="21">
         <f>ABS(_xll.RtGet(SourceAlias,$O8,ASK)-Q8)</f>
-        <v>1.7696005771838941E-10</v>
+        <v>2.8743066260439321E-10</v>
       </c>
       <c r="Y8" s="66" t="s">
         <v>103</v>
@@ -6699,11 +6732,11 @@
       </c>
       <c r="H9" s="19">
         <f>'ON Pricing'!I9*100</f>
-        <v>6.3551430724752458E-2</v>
+        <v>6.6130796651313897E-2</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" si="3"/>
-        <v>6.3551430724752458E-2</v>
+        <v>6.6130796651313897E-2</v>
       </c>
       <c r="J9" s="24" t="s">
         <v>61</v>
@@ -6714,11 +6747,11 @@
       </c>
       <c r="L9" s="19">
         <f>'3M Pricing'!I9*100</f>
-        <v>2.5315511853664568E-2</v>
+        <v>9.7641096612604325E-2</v>
       </c>
       <c r="M9" s="19">
         <f t="shared" si="4"/>
-        <v>2.5315511853664568E-2</v>
+        <v>9.7641096612604325E-2</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>61</v>
@@ -6729,36 +6762,36 @@
       </c>
       <c r="P9" s="19">
         <f>'6M Pricing'!I9*100</f>
-        <v>0.18925960847772569</v>
+        <v>0.15954203372471806</v>
       </c>
       <c r="Q9" s="19">
         <f t="shared" si="5"/>
-        <v>0.18925960847772569</v>
+        <v>0.15954203372471806</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G9,BID)-H9)</f>
-        <v>2.752475469769422E-10</v>
+        <v>3.4868609388727378E-10</v>
       </c>
       <c r="T9" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G9,ASK)-I9)</f>
-        <v>2.752475469769422E-10</v>
+        <v>3.4868609388727378E-10</v>
       </c>
       <c r="U9" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K9,BID)-L9)</f>
-        <v>1.4633543335418331E-10</v>
+        <v>3.8739568497536681E-10</v>
       </c>
       <c r="V9" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K9,ASK)-M9)</f>
-        <v>1.4633543335418331E-10</v>
+        <v>3.8739568497536681E-10</v>
       </c>
       <c r="W9" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O9,BID)-P9)</f>
-        <v>4.777256645827066E-10</v>
+        <v>2.7528193613512997E-10</v>
       </c>
       <c r="X9" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O9,ASK)-Q9)</f>
-        <v>4.777256645827066E-10</v>
+        <v>2.7528193613512997E-10</v>
       </c>
       <c r="Y9" s="66" t="s">
         <v>103</v>
@@ -6818,11 +6851,11 @@
       </c>
       <c r="H10" s="19">
         <f>'ON Pricing'!I10*100</f>
-        <v>6.3639793889537707E-2</v>
+        <v>6.6216513644246078E-2</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" si="3"/>
-        <v>6.3639793889537707E-2</v>
+        <v>6.6216513644246078E-2</v>
       </c>
       <c r="J10" s="24" t="s">
         <v>62</v>
@@ -6833,11 +6866,11 @@
       </c>
       <c r="L10" s="19">
         <f>'3M Pricing'!I10*100</f>
-        <v>2.716494839015228E-2</v>
+        <v>9.7861870400427015E-2</v>
       </c>
       <c r="M10" s="19">
         <f t="shared" si="4"/>
-        <v>2.716494839015228E-2</v>
+        <v>9.7861870400427015E-2</v>
       </c>
       <c r="N10" s="24" t="s">
         <v>62</v>
@@ -6848,36 +6881,36 @@
       </c>
       <c r="P10" s="19">
         <f>'6M Pricing'!I10*100</f>
-        <v>0.1888853744334007</v>
+        <v>0.15931113348636014</v>
       </c>
       <c r="Q10" s="19">
         <f t="shared" si="5"/>
-        <v>0.1888853744334007</v>
+        <v>0.15931113348636014</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G10,BID)-H10)</f>
-        <v>1.1046229209110692E-10</v>
+        <v>3.5575392631770342E-10</v>
       </c>
       <c r="T10" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G10,ASK)-I10)</f>
-        <v>1.1046229209110692E-10</v>
+        <v>3.5575392631770342E-10</v>
       </c>
       <c r="U10" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K10,BID)-L10)</f>
-        <v>3.9015227853989032E-10</v>
+        <v>4.0042702487141923E-10</v>
       </c>
       <c r="V10" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K10,ASK)-M10)</f>
-        <v>3.9015227853989032E-10</v>
+        <v>4.0042702487141923E-10</v>
       </c>
       <c r="W10" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O10,BID)-P10)</f>
-        <v>4.3340070421393762E-10</v>
+        <v>4.863601466009726E-10</v>
       </c>
       <c r="X10" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O10,ASK)-Q10)</f>
-        <v>4.3340070421393762E-10</v>
+        <v>4.863601466009726E-10</v>
       </c>
       <c r="Y10" s="66" t="s">
         <v>103</v>
@@ -6937,11 +6970,11 @@
       </c>
       <c r="H11" s="19">
         <f>'ON Pricing'!I11*100</f>
-        <v>6.3796638120647037E-2</v>
+        <v>6.633841771413225E-2</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" si="3"/>
-        <v>6.3796638120647037E-2</v>
+        <v>6.633841771413225E-2</v>
       </c>
       <c r="J11" s="24" t="s">
         <v>63</v>
@@ -6952,11 +6985,11 @@
       </c>
       <c r="L11" s="19">
         <f>'3M Pricing'!I11*100</f>
-        <v>3.0788321364383364E-2</v>
+        <v>9.8229220001450845E-2</v>
       </c>
       <c r="M11" s="19">
         <f t="shared" si="4"/>
-        <v>3.0788321364383364E-2</v>
+        <v>9.8229220001450845E-2</v>
       </c>
       <c r="N11" s="24" t="s">
         <v>63</v>
@@ -6967,36 +7000,36 @@
       </c>
       <c r="P11" s="19">
         <f>'6M Pricing'!I11*100</f>
-        <v>0.18814929180509635</v>
+        <v>0.15892463081116201</v>
       </c>
       <c r="Q11" s="19">
         <f t="shared" si="5"/>
-        <v>0.18814929180509635</v>
+        <v>0.15892463081116201</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G11,BID)-H11)</f>
-        <v>1.2064703402980825E-10</v>
+        <v>2.8586774614147714E-10</v>
       </c>
       <c r="T11" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G11,ASK)-I11)</f>
-        <v>1.2064703402980825E-10</v>
+        <v>2.8586774614147714E-10</v>
       </c>
       <c r="U11" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K11,BID)-L11)</f>
-        <v>3.6438336376010128E-10</v>
+        <v>1.4508394485801546E-12</v>
       </c>
       <c r="V11" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K11,ASK)-M11)</f>
-        <v>3.6438336376010128E-10</v>
+        <v>1.4508394485801546E-12</v>
       </c>
       <c r="W11" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O11,BID)-P11)</f>
-        <v>1.9490364877583488E-10</v>
+        <v>1.8883800079194657E-10</v>
       </c>
       <c r="X11" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O11,ASK)-Q11)</f>
-        <v>1.9490364877583488E-10</v>
+        <v>1.8883800079194657E-10</v>
       </c>
       <c r="Y11" s="66" t="s">
         <v>103</v>
@@ -7056,11 +7089,11 @@
       </c>
       <c r="H12" s="19">
         <f>'ON Pricing'!I12*100</f>
-        <v>6.4109589073314446E-2</v>
+        <v>6.6575342692914097E-2</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" si="3"/>
-        <v>6.4109589073314446E-2</v>
+        <v>6.6575342692914097E-2</v>
       </c>
       <c r="J12" s="24" t="s">
         <v>64</v>
@@ -7071,11 +7104,11 @@
       </c>
       <c r="L12" s="19">
         <f>'3M Pricing'!I12*100</f>
-        <v>3.8400000004495442E-2</v>
+        <v>9.92000000001073E-2</v>
       </c>
       <c r="M12" s="19">
         <f t="shared" si="4"/>
-        <v>3.8400000004495442E-2</v>
+        <v>9.92000000001073E-2</v>
       </c>
       <c r="N12" s="24" t="s">
         <v>64</v>
@@ -7086,36 +7119,36 @@
       </c>
       <c r="P12" s="19">
         <f>'6M Pricing'!I12*100</f>
-        <v>0.18659999999982479</v>
+        <v>0.15790000000000376</v>
       </c>
       <c r="Q12" s="19">
         <f t="shared" si="5"/>
-        <v>0.18659999999982479</v>
+        <v>0.15790000000000376</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G12,BID)-H12)</f>
-        <v>7.3314451731754104E-11</v>
+        <v>3.0708589837669109E-10</v>
       </c>
       <c r="T12" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G12,ASK)-I12)</f>
-        <v>7.3314451731754104E-11</v>
+        <v>3.0708589837669109E-10</v>
       </c>
       <c r="U12" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K12,BID)-L12)</f>
-        <v>4.4954387434792409E-12</v>
+        <v>1.0730305533002138E-13</v>
       </c>
       <c r="V12" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K12,ASK)-M12)</f>
-        <v>4.4954387434792409E-12</v>
+        <v>1.0730305533002138E-13</v>
       </c>
       <c r="W12" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O12,BID)-P12)</f>
-        <v>1.7522094886146533E-13</v>
+        <v>3.7747582837255322E-15</v>
       </c>
       <c r="X12" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O12,ASK)-Q12)</f>
-        <v>1.7522094886146533E-13</v>
+        <v>3.7747582837255322E-15</v>
       </c>
       <c r="Y12" s="66" t="s">
         <v>103</v>
@@ -7175,11 +7208,11 @@
       </c>
       <c r="H13" s="19">
         <f>'ON Pricing'!I13*100</f>
-        <v>6.1643835488319788E-2</v>
+        <v>6.6575342303290264E-2</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" si="3"/>
-        <v>6.1643835488319788E-2</v>
+        <v>6.6575342303290264E-2</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>65</v>
@@ -7190,11 +7223,11 @@
       </c>
       <c r="L13" s="19">
         <f>'3M Pricing'!I13*100</f>
-        <v>6.0300000004117303E-2</v>
+        <v>0.10139999951186054</v>
       </c>
       <c r="M13" s="19">
         <f t="shared" si="4"/>
-        <v>6.0300000004117303E-2</v>
+        <v>0.10139999951186054</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>65</v>
@@ -7205,36 +7238,36 @@
       </c>
       <c r="P13" s="19">
         <f>'6M Pricing'!I13*100</f>
-        <v>0.17779999999985829</v>
+        <v>0.15390000000006013</v>
       </c>
       <c r="Q13" s="19">
         <f t="shared" si="5"/>
-        <v>0.17779999999985829</v>
+        <v>0.15390000000006013</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G13,BID)-H13)</f>
-        <v>4.8831979432284456E-10</v>
+        <v>3.0329026790010261E-10</v>
       </c>
       <c r="T13" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G13,ASK)-I13)</f>
-        <v>4.8831979432284456E-10</v>
+        <v>3.0329026790010261E-10</v>
       </c>
       <c r="U13" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K13,BID)-L13)</f>
-        <v>4.1173037201858165E-12</v>
+        <v>4.8813945940917591E-10</v>
       </c>
       <c r="V13" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K13,ASK)-M13)</f>
-        <v>4.1173037201858165E-12</v>
+        <v>4.8813945940917591E-10</v>
       </c>
       <c r="W13" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O13,BID)-P13)</f>
-        <v>1.4171996909340123E-13</v>
+        <v>6.0146332359067856E-14</v>
       </c>
       <c r="X13" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O13,ASK)-Q13)</f>
-        <v>1.4171996909340123E-13</v>
+        <v>6.0146332359067856E-14</v>
       </c>
       <c r="Y13" s="66" t="s">
         <v>103</v>
@@ -7294,11 +7327,11 @@
       </c>
       <c r="H14" s="19">
         <f>'ON Pricing'!I14*100</f>
-        <v>5.178082180332666E-2</v>
+        <v>6.410958906092383E-2</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" si="3"/>
-        <v>5.178082180332666E-2</v>
+        <v>6.410958906092383E-2</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>66</v>
@@ -7309,11 +7342,11 @@
       </c>
       <c r="L14" s="19">
         <f>'3M Pricing'!I14*100</f>
-        <v>6.9900000004530227E-2</v>
+        <v>0.10070000000009843</v>
       </c>
       <c r="M14" s="19">
         <f t="shared" si="4"/>
-        <v>6.9900000004530227E-2</v>
+        <v>0.10070000000009843</v>
       </c>
       <c r="N14" s="24" t="s">
         <v>66</v>
@@ -7324,36 +7357,36 @@
       </c>
       <c r="P14" s="19">
         <f>'6M Pricing'!I14*100</f>
-        <v>0.16230000000003741</v>
+        <v>0.14790000000004619</v>
       </c>
       <c r="Q14" s="19">
         <f t="shared" si="5"/>
-        <v>0.16230000000003741</v>
+        <v>0.14790000000004619</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G14,BID)-H14)</f>
-        <v>1.9667334427708738E-10</v>
+        <v>6.0923835421000661E-11</v>
       </c>
       <c r="T14" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G14,ASK)-I14)</f>
-        <v>1.9667334427708738E-10</v>
+        <v>6.0923835421000661E-11</v>
       </c>
       <c r="U14" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K14,BID)-L14)</f>
-        <v>4.5302234186195278E-12</v>
+        <v>9.8449026708635756E-14</v>
       </c>
       <c r="V14" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K14,ASK)-M14)</f>
-        <v>4.5302234186195278E-12</v>
+        <v>9.8449026708635756E-14</v>
       </c>
       <c r="W14" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O14,BID)-P14)</f>
-        <v>3.7414515929867775E-14</v>
+        <v>4.6185277824406512E-14</v>
       </c>
       <c r="X14" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O14,ASK)-Q14)</f>
-        <v>3.7414515929867775E-14</v>
+        <v>4.6185277824406512E-14</v>
       </c>
       <c r="Y14" s="66" t="s">
         <v>103</v>
@@ -7413,11 +7446,11 @@
       </c>
       <c r="H15" s="19">
         <f>'ON Pricing'!I15*100</f>
-        <v>4.6849314990438096E-2</v>
+        <v>6.1643835611192813E-2</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" si="3"/>
-        <v>4.6849314990438096E-2</v>
+        <v>6.1643835611192813E-2</v>
       </c>
       <c r="J15" s="24" t="s">
         <v>121</v>
@@ -7428,11 +7461,11 @@
       </c>
       <c r="L15" s="19">
         <f>'3M Pricing'!I15*100</f>
-        <v>9.5000000001751905E-2</v>
+        <v>0.10000000000004693</v>
       </c>
       <c r="M15" s="19">
         <f t="shared" si="4"/>
-        <v>9.5000000001751905E-2</v>
+        <v>0.10000000000004693</v>
       </c>
       <c r="N15" s="24" t="s">
         <v>67</v>
@@ -7443,36 +7476,36 @@
       </c>
       <c r="P15" s="19">
         <f>'6M Pricing'!I15*100</f>
-        <v>0.15260000000001384</v>
+        <v>0.14319999999996344</v>
       </c>
       <c r="Q15" s="19">
         <f t="shared" si="5"/>
-        <v>0.15260000000001384</v>
+        <v>0.14319999999996344</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G15,BID)-H15)</f>
-        <v>9.5619068218866232E-12</v>
+        <v>3.8880718089551181E-10</v>
       </c>
       <c r="T15" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G15,ASK)-I15)</f>
-        <v>9.5619068218866232E-12</v>
+        <v>3.8880718089551181E-10</v>
       </c>
       <c r="U15" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K15,BID)-L15)</f>
-        <v>9.5000000001751905E-2</v>
+        <v>4.6920800578220678E-14</v>
       </c>
       <c r="V15" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K15,ASK)-M15)</f>
-        <v>9.5000000001751905E-2</v>
+        <v>4.6920800578220678E-14</v>
       </c>
       <c r="W15" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O15,BID)-P15)</f>
-        <v>1.3822276656583199E-14</v>
+        <v>3.6554093085783279E-14</v>
       </c>
       <c r="X15" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O15,ASK)-Q15)</f>
-        <v>1.3822276656583199E-14</v>
+        <v>3.6554093085783279E-14</v>
       </c>
       <c r="Y15" s="66" t="s">
         <v>103</v>
@@ -7532,11 +7565,11 @@
       </c>
       <c r="H16" s="19">
         <f>'ON Pricing'!I16*100</f>
-        <v>4.4383561574989905E-2</v>
+        <v>6.1643835617300968E-2</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" si="3"/>
-        <v>4.4383561574989905E-2</v>
+        <v>6.1643835617300968E-2</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>122</v>
@@ -7547,11 +7580,11 @@
       </c>
       <c r="L16" s="19">
         <f>'3M Pricing'!I16*100</f>
-        <v>0.10000000000265352</v>
+        <v>9.9999999676305892E-2</v>
       </c>
       <c r="M16" s="19">
         <f t="shared" si="4"/>
-        <v>0.10000000000265352</v>
+        <v>9.9999999676305892E-2</v>
       </c>
       <c r="N16" s="24" t="s">
         <v>68</v>
@@ -7562,36 +7595,36 @@
       </c>
       <c r="P16" s="19">
         <f>'6M Pricing'!I16*100</f>
-        <v>0.14640000000051104</v>
+        <v>0.14199999999999507</v>
       </c>
       <c r="Q16" s="19">
         <f t="shared" si="5"/>
-        <v>0.14640000000051104</v>
+        <v>0.14199999999999507</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G16,BID)-H16)</f>
-        <v>4.2501009656081834E-10</v>
+        <v>3.8269902524756816E-10</v>
       </c>
       <c r="T16" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G16,ASK)-I16)</f>
-        <v>4.2501009656081834E-10</v>
+        <v>3.8269902524756816E-10</v>
       </c>
       <c r="U16" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K16,BID)-L16)</f>
-        <v>0.10000000000265352</v>
+        <v>3.2369411318011743E-10</v>
       </c>
       <c r="V16" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K16,ASK)-M16)</f>
-        <v>0.10000000000265352</v>
+        <v>3.2369411318011743E-10</v>
       </c>
       <c r="W16" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O16,BID)-P16)</f>
-        <v>5.1103565823495956E-13</v>
+        <v>4.9127368839663177E-15</v>
       </c>
       <c r="X16" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O16,ASK)-Q16)</f>
-        <v>5.1103565823495956E-13</v>
+        <v>4.9127368839663177E-15</v>
       </c>
       <c r="Y16" s="66" t="s">
         <v>103</v>
@@ -7651,11 +7684,11 @@
       </c>
       <c r="H17" s="19">
         <f>'ON Pricing'!I17*100</f>
-        <v>4.1917808167474591E-2</v>
+        <v>5.9178082191753717E-2</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" si="3"/>
-        <v>4.1917808167474591E-2</v>
+        <v>5.9178082191753717E-2</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>123</v>
@@ -7666,11 +7699,11 @@
       </c>
       <c r="L17" s="19">
         <f>'3M Pricing'!I17*100</f>
-        <v>9.5000000004114085E-2</v>
+        <v>0.10000000000004693</v>
       </c>
       <c r="M17" s="19">
         <f t="shared" si="4"/>
-        <v>9.5000000004114085E-2</v>
+        <v>0.10000000000004693</v>
       </c>
       <c r="N17" s="24" t="s">
         <v>69</v>
@@ -7681,36 +7714,36 @@
       </c>
       <c r="P17" s="19">
         <f>'6M Pricing'!I17*100</f>
-        <v>0.14160000000098771</v>
+        <v>0.13929999999999682</v>
       </c>
       <c r="Q17" s="19">
         <f t="shared" si="5"/>
-        <v>0.14160000000098771</v>
+        <v>0.13929999999999682</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G17,BID)-H17)</f>
-        <v>1.6747458975174823E-10</v>
+        <v>1.9175371707147448E-10</v>
       </c>
       <c r="T17" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G17,ASK)-I17)</f>
-        <v>1.6747458975174823E-10</v>
+        <v>1.9175371707147448E-10</v>
       </c>
       <c r="U17" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K17,BID)-L17)</f>
-        <v>9.5000000004114085E-2</v>
+        <v>4.6920800578220678E-14</v>
       </c>
       <c r="V17" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K17,ASK)-M17)</f>
-        <v>9.5000000004114085E-2</v>
+        <v>4.6920800578220678E-14</v>
       </c>
       <c r="W17" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O17,BID)-P17)</f>
-        <v>9.8770991385777052E-13</v>
+        <v>3.1918911957973251E-15</v>
       </c>
       <c r="X17" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O17,ASK)-Q17)</f>
-        <v>9.8770991385777052E-13</v>
+        <v>3.1918911957973251E-15</v>
       </c>
       <c r="Y17" s="66" t="s">
         <v>103</v>
@@ -7771,11 +7804,11 @@
       </c>
       <c r="L18" s="19">
         <f>'3M Pricing'!I18*100</f>
-        <v>8.99999999999814E-2</v>
+        <v>0.10500000000025346</v>
       </c>
       <c r="M18" s="19">
         <f t="shared" si="4"/>
-        <v>8.99999999999814E-2</v>
+        <v>0.10500000000025346</v>
       </c>
       <c r="N18" s="24" t="s">
         <v>129</v>
@@ -7786,30 +7819,30 @@
       </c>
       <c r="P18" s="19">
         <f>'6M Pricing'!I18*100</f>
-        <v>0.13000000000344297</v>
+        <v>0.13499999999999987</v>
       </c>
       <c r="Q18" s="19">
         <f t="shared" si="5"/>
-        <v>0.13000000000344297</v>
+        <v>0.13499999999999987</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
       <c r="U18" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K18,BID)-L18)</f>
-        <v>8.99999999999814E-2</v>
+        <v>2.5345003873411542E-13</v>
       </c>
       <c r="V18" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K18,ASK)-M18)</f>
-        <v>8.99999999999814E-2</v>
+        <v>2.5345003873411542E-13</v>
       </c>
       <c r="W18" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O18,BID)-P18)</f>
-        <v>0.13000000000344297</v>
+        <v>1.3877787807814457E-16</v>
       </c>
       <c r="X18" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O18,ASK)-Q18)</f>
-        <v>0.13000000000344297</v>
+        <v>1.3877787807814457E-16</v>
       </c>
       <c r="Y18" s="66" t="s">
         <v>103</v>
@@ -7872,11 +7905,11 @@
       </c>
       <c r="L19" s="19">
         <f>'3M Pricing'!I19*100</f>
-        <v>8.5000000188279023E-2</v>
+        <v>0.10499999966426135</v>
       </c>
       <c r="M19" s="19">
         <f t="shared" si="4"/>
-        <v>8.5000000188279023E-2</v>
+        <v>0.10499999966426135</v>
       </c>
       <c r="N19" s="24" t="s">
         <v>130</v>
@@ -7887,30 +7920,30 @@
       </c>
       <c r="P19" s="19">
         <f>'6M Pricing'!I19*100</f>
-        <v>0.12500000000465367</v>
+        <v>0.13500000000001555</v>
       </c>
       <c r="Q19" s="19">
         <f t="shared" si="5"/>
-        <v>0.12500000000465367</v>
+        <v>0.13500000000001555</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
       <c r="U19" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K19,BID)-L19)</f>
-        <v>8.5000000188279023E-2</v>
+        <v>3.357386590963074E-10</v>
       </c>
       <c r="V19" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K19,ASK)-M19)</f>
-        <v>8.5000000188279023E-2</v>
+        <v>3.357386590963074E-10</v>
       </c>
       <c r="W19" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O19,BID)-P19)</f>
-        <v>0.12500000000465367</v>
+        <v>1.5543122344752192E-14</v>
       </c>
       <c r="X19" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O19,ASK)-Q19)</f>
-        <v>0.12500000000465367</v>
+        <v>1.5543122344752192E-14</v>
       </c>
       <c r="Y19" s="66" t="s">
         <v>103</v>
@@ -7970,11 +8003,11 @@
       </c>
       <c r="H20" s="19">
         <f>'ON Pricing'!I20*100</f>
-        <v>3.9452054828593694E-2</v>
+        <v>5.6712328767138942E-2</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" si="3"/>
-        <v>3.9452054828593694E-2</v>
+        <v>5.6712328767138942E-2</v>
       </c>
       <c r="J20" s="24" t="s">
         <v>126</v>
@@ -7985,11 +8018,11 @@
       </c>
       <c r="L20" s="19">
         <f>'3M Pricing'!I20*100</f>
-        <v>8.5000000003858558E-2</v>
+        <v>0.10500000000005008</v>
       </c>
       <c r="M20" s="19">
         <f t="shared" si="4"/>
-        <v>8.5000000003858558E-2</v>
+        <v>0.10500000000005008</v>
       </c>
       <c r="N20" s="24" t="s">
         <v>131</v>
@@ -8000,36 +8033,36 @@
       </c>
       <c r="P20" s="19">
         <f>'6M Pricing'!I20*100</f>
-        <v>0.12000000000803718</v>
+        <v>0.1350000000000034</v>
       </c>
       <c r="Q20" s="19">
         <f t="shared" si="5"/>
-        <v>0.12000000000803718</v>
+        <v>0.1350000000000034</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G20,BID)-H20)</f>
-        <v>1.7140630581558014E-10</v>
+        <v>2.3286104988695655E-10</v>
       </c>
       <c r="T20" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G20,ASK)-I20)</f>
-        <v>1.7140630581558014E-10</v>
+        <v>2.3286104988695655E-10</v>
       </c>
       <c r="U20" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K20,BID)-L20)</f>
-        <v>8.5000000003858558E-2</v>
+        <v>5.007105841059456E-14</v>
       </c>
       <c r="V20" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K20,ASK)-M20)</f>
-        <v>8.5000000003858558E-2</v>
+        <v>5.007105841059456E-14</v>
       </c>
       <c r="W20" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O20,BID)-P20)</f>
-        <v>0.12000000000803718</v>
+        <v>3.3861802251067274E-15</v>
       </c>
       <c r="X20" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O20,ASK)-Q20)</f>
-        <v>0.12000000000803718</v>
+        <v>3.3861802251067274E-15</v>
       </c>
       <c r="Y20" s="66" t="s">
         <v>103</v>
@@ -8095,11 +8128,11 @@
       </c>
       <c r="P21" s="19">
         <f>'6M Pricing'!I21*100</f>
-        <v>0.11500000003105001</v>
+        <v>0.13499999999999987</v>
       </c>
       <c r="Q21" s="19">
         <f t="shared" si="5"/>
-        <v>0.11500000003105001</v>
+        <v>0.13499999999999987</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="19"/>
@@ -8108,11 +8141,11 @@
       <c r="V21" s="19"/>
       <c r="W21" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O21,BID)-P21)</f>
-        <v>0.11500000003105001</v>
+        <v>1.3877787807814457E-16</v>
       </c>
       <c r="X21" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O21,ASK)-Q21)</f>
-        <v>0.11500000003105001</v>
+        <v>1.3877787807814457E-16</v>
       </c>
       <c r="Y21" s="66" t="s">
         <v>103</v>
@@ -8178,11 +8211,11 @@
       </c>
       <c r="P22" s="19">
         <f>'6M Pricing'!I22*100</f>
-        <v>0.1100000000395748</v>
+        <v>0.13499999999999987</v>
       </c>
       <c r="Q22" s="19">
         <f t="shared" si="5"/>
-        <v>0.1100000000395748</v>
+        <v>0.13499999999999987</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="19"/>
@@ -8191,11 +8224,11 @@
       <c r="V22" s="19"/>
       <c r="W22" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O22,BID)-P22)</f>
-        <v>0.1100000000395748</v>
+        <v>1.3877787807814457E-16</v>
       </c>
       <c r="X22" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O22,ASK)-Q22)</f>
-        <v>0.1100000000395748</v>
+        <v>1.3877787807814457E-16</v>
       </c>
       <c r="Y22" s="66" t="s">
         <v>103</v>
@@ -8255,11 +8288,11 @@
       </c>
       <c r="H23" s="19">
         <f>'ON Pricing'!I23*100</f>
-        <v>3.6986301395356358E-2</v>
+        <v>5.6712328767128027E-2</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" si="3"/>
-        <v>3.6986301395356358E-2</v>
+        <v>5.6712328767128027E-2</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>127</v>
@@ -8270,11 +8303,11 @@
       </c>
       <c r="L23" s="19">
         <f>'3M Pricing'!I23*100</f>
-        <v>8.0000000053264519E-2</v>
+        <v>0.11000000000185017</v>
       </c>
       <c r="M23" s="19">
         <f t="shared" si="4"/>
-        <v>8.0000000053264519E-2</v>
+        <v>0.11000000000185017</v>
       </c>
       <c r="N23" s="24" t="s">
         <v>134</v>
@@ -8285,36 +8318,36 @@
       </c>
       <c r="P23" s="19">
         <f>'6M Pricing'!I23*100</f>
-        <v>0.11000000004729209</v>
+        <v>0.13499999999998405</v>
       </c>
       <c r="Q23" s="19">
         <f t="shared" si="5"/>
-        <v>0.11000000004729209</v>
+        <v>0.13499999999998405</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G23,BID)-H23)</f>
-        <v>3.9535635876219999E-10</v>
+        <v>2.328719647670674E-10</v>
       </c>
       <c r="T23" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G23,ASK)-I23)</f>
-        <v>3.9535635876219999E-10</v>
+        <v>2.328719647670674E-10</v>
       </c>
       <c r="U23" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K23,BID)-L23)</f>
-        <v>8.0000000053264519E-2</v>
+        <v>1.8501589149622077E-12</v>
       </c>
       <c r="V23" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K23,ASK)-M23)</f>
-        <v>8.0000000053264519E-2</v>
+        <v>1.8501589149622077E-12</v>
       </c>
       <c r="W23" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O23,BID)-P23)</f>
-        <v>0.11000000004729209</v>
+        <v>1.5959455978986625E-14</v>
       </c>
       <c r="X23" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O23,ASK)-Q23)</f>
-        <v>0.11000000004729209</v>
+        <v>1.5959455978986625E-14</v>
       </c>
       <c r="Y23" s="66" t="s">
         <v>103</v>
@@ -8376,11 +8409,11 @@
       </c>
       <c r="L24" s="19">
         <f>'3M Pricing'!I24*100</f>
-        <v>8.0000000052438611E-2</v>
+        <v>0.10999999999285325</v>
       </c>
       <c r="M24" s="19">
         <f t="shared" si="4"/>
-        <v>8.0000000052438611E-2</v>
+        <v>0.10999999999285325</v>
       </c>
       <c r="N24" s="24"/>
       <c r="O24" s="18"/>
@@ -8391,11 +8424,11 @@
       <c r="T24" s="19"/>
       <c r="U24" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K24,BID)-L24)</f>
-        <v>8.0000000052438611E-2</v>
+        <v>7.1467692874804811E-12</v>
       </c>
       <c r="V24" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K24,ASK)-M24)</f>
-        <v>8.0000000052438611E-2</v>
+        <v>7.1467692874804811E-12</v>
       </c>
       <c r="W24" s="19"/>
       <c r="X24" s="19"/>
@@ -8457,11 +8490,11 @@
       </c>
       <c r="H25" s="19">
         <f>'ON Pricing'!I25*100</f>
-        <v>3.4520547988156861E-2</v>
+        <v>5.6712328767119374E-2</v>
       </c>
       <c r="I25" s="19">
         <f t="shared" si="3"/>
-        <v>3.4520547988156861E-2</v>
+        <v>5.6712328767119374E-2</v>
       </c>
       <c r="J25" s="24" t="s">
         <v>98</v>
@@ -8472,11 +8505,11 @@
       </c>
       <c r="L25" s="19">
         <f>'3M Pricing'!I25*100</f>
-        <v>8.8320749045358443E-2</v>
+        <v>0.1082131577166686</v>
       </c>
       <c r="M25" s="19">
         <f t="shared" si="4"/>
-        <v>8.8320749045358443E-2</v>
+        <v>0.1082131577166686</v>
       </c>
       <c r="N25" s="24" t="s">
         <v>98</v>
@@ -8487,36 +8520,36 @@
       </c>
       <c r="P25" s="19">
         <f>'6M Pricing'!I25*100</f>
-        <v>0.1149999999999992</v>
+        <v>0.14249999999999979</v>
       </c>
       <c r="Q25" s="19">
         <f t="shared" si="5"/>
-        <v>0.1149999999999992</v>
+        <v>0.14249999999999979</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G25,BID)-H25)</f>
-        <v>1.1843137581735164E-11</v>
+        <v>2.3288061756776557E-10</v>
       </c>
       <c r="T25" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G25,ASK)-I25)</f>
-        <v>1.1843137581735164E-11</v>
+        <v>2.3288061756776557E-10</v>
       </c>
       <c r="U25" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K25,BID)-L25)</f>
-        <v>4.5358439226816927E-11</v>
+        <v>2.8333140000835755E-10</v>
       </c>
       <c r="V25" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K25,ASK)-M25)</f>
-        <v>4.5358439226816927E-11</v>
+        <v>2.8333140000835755E-10</v>
       </c>
       <c r="W25" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O25,BID)-P25)</f>
-        <v>7.9103390504542404E-16</v>
+        <v>2.2204460492503131E-16</v>
       </c>
       <c r="X25" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O25,ASK)-Q25)</f>
-        <v>7.9103390504542404E-16</v>
+        <v>2.2204460492503131E-16</v>
       </c>
       <c r="Y25" s="66" t="s">
         <v>103</v>
@@ -8576,11 +8609,11 @@
       </c>
       <c r="H26" s="19">
         <f>'ON Pricing'!I26*100</f>
-        <v>3.4520547993543149E-2</v>
+        <v>5.9178082191775117E-2</v>
       </c>
       <c r="I26" s="19">
         <f t="shared" si="3"/>
-        <v>3.4520547993543149E-2</v>
+        <v>5.9178082191775117E-2</v>
       </c>
       <c r="J26" s="24" t="s">
         <v>36</v>
@@ -8591,11 +8624,11 @@
       </c>
       <c r="L26" s="19">
         <f>'3M Pricing'!I26*100</f>
-        <v>7.7047221946833597E-2</v>
+        <v>0.11197625992922695</v>
       </c>
       <c r="M26" s="19">
         <f t="shared" si="4"/>
-        <v>7.7047221946833597E-2</v>
+        <v>0.11197625992922695</v>
       </c>
       <c r="N26" s="24" t="s">
         <v>36</v>
@@ -8606,36 +8639,36 @@
       </c>
       <c r="P26" s="19">
         <f>'6M Pricing'!I26*100</f>
-        <v>0.10999999999997755</v>
+        <v>0.15000000000000505</v>
       </c>
       <c r="Q26" s="19">
         <f t="shared" si="5"/>
-        <v>0.10999999999997755</v>
+        <v>0.15000000000000505</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G26,BID)-H26)</f>
-        <v>6.4568489444027932E-12</v>
+        <v>1.9177511662027413E-10</v>
       </c>
       <c r="T26" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G26,ASK)-I26)</f>
-        <v>6.4568489444027932E-12</v>
+        <v>1.9177511662027413E-10</v>
       </c>
       <c r="U26" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K26,BID)-L26)</f>
-        <v>5.316640183661292E-11</v>
+        <v>7.0773054083872466E-11</v>
       </c>
       <c r="V26" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K26,ASK)-M26)</f>
-        <v>5.316640183661292E-11</v>
+        <v>7.0773054083872466E-11</v>
       </c>
       <c r="W26" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O26,BID)-P26)</f>
-        <v>2.2468138460851605E-14</v>
+        <v>5.0515147620444623E-15</v>
       </c>
       <c r="X26" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O26,ASK)-Q26)</f>
-        <v>2.2468138460851605E-14</v>
+        <v>5.0515147620444623E-15</v>
       </c>
       <c r="Y26" s="66" t="s">
         <v>103</v>
@@ -8695,11 +8728,11 @@
       </c>
       <c r="H27" s="19">
         <f>'ON Pricing'!I27*100</f>
-        <v>4.6849315089833268E-2</v>
+        <v>7.8904109589043231E-2</v>
       </c>
       <c r="I27" s="19">
         <f t="shared" si="3"/>
-        <v>4.6849315089833268E-2</v>
+        <v>7.8904109589043231E-2</v>
       </c>
       <c r="J27" s="24" t="s">
         <v>37</v>
@@ -8710,11 +8743,11 @@
       </c>
       <c r="L27" s="19">
         <f>'3M Pricing'!I27*100</f>
-        <v>7.9546719154074158E-2</v>
+        <v>0.1344751533826149</v>
       </c>
       <c r="M27" s="19">
         <f t="shared" si="4"/>
-        <v>7.9546719154074158E-2</v>
+        <v>0.1344751533826149</v>
       </c>
       <c r="N27" s="24" t="s">
         <v>37</v>
@@ -8725,36 +8758,36 @@
       </c>
       <c r="P27" s="19">
         <f>'6M Pricing'!I27*100</f>
-        <v>0.11250000000001281</v>
+        <v>0.17250000000560753</v>
       </c>
       <c r="Q27" s="19">
         <f t="shared" si="5"/>
-        <v>0.11250000000001281</v>
+        <v>0.17250000000560753</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G27,BID)-H27)</f>
-        <v>8.9833265826122499E-11</v>
+        <v>4.1095676861502284E-10</v>
       </c>
       <c r="T27" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G27,ASK)-I27)</f>
-        <v>8.9833265826122499E-11</v>
+        <v>4.1095676861502284E-10</v>
       </c>
       <c r="U27" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K27,BID)-L27)</f>
-        <v>1.5407415621115916E-10</v>
+        <v>3.82614911975665E-10</v>
       </c>
       <c r="V27" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K27,ASK)-M27)</f>
-        <v>1.5407415621115916E-10</v>
+        <v>3.82614911975665E-10</v>
       </c>
       <c r="W27" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O27,BID)-P27)</f>
-        <v>1.2809198146612744E-14</v>
+        <v>5.6075144527767407E-12</v>
       </c>
       <c r="X27" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O27,ASK)-Q27)</f>
-        <v>1.2809198146612744E-14</v>
+        <v>5.6075144527767407E-12</v>
       </c>
       <c r="Y27" s="66" t="s">
         <v>103</v>
@@ -8814,11 +8847,11 @@
       </c>
       <c r="H28" s="19">
         <f>'ON Pricing'!I28*100</f>
-        <v>4.1917808231201115E-2</v>
+        <v>0.115890410958903</v>
       </c>
       <c r="I28" s="19">
         <f t="shared" si="3"/>
-        <v>4.1917808231201115E-2</v>
+        <v>0.115890410958903</v>
       </c>
       <c r="J28" s="24" t="s">
         <v>38</v>
@@ -8829,11 +8862,11 @@
       </c>
       <c r="L28" s="19">
         <f>'3M Pricing'!I28*100</f>
-        <v>8.9477161995146437E-2</v>
+        <v>0.17443812455002131</v>
       </c>
       <c r="M28" s="19">
         <f t="shared" si="4"/>
-        <v>8.9477161995146437E-2</v>
+        <v>0.17443812455002131</v>
       </c>
       <c r="N28" s="24" t="s">
         <v>38</v>
@@ -8844,36 +8877,36 @@
       </c>
       <c r="P28" s="19">
         <f>'6M Pricing'!I28*100</f>
-        <v>0.12749999999191247</v>
+        <v>0.21500000000803837</v>
       </c>
       <c r="Q28" s="19">
         <f t="shared" si="5"/>
-        <v>0.12749999999191247</v>
+        <v>0.21500000000803837</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G28,BID)-H28)</f>
-        <v>2.3120111380947606E-10</v>
+        <v>4.1097000802459149E-11</v>
       </c>
       <c r="T28" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G28,ASK)-I28)</f>
-        <v>2.3120111380947606E-10</v>
+        <v>4.1097000802459149E-11</v>
       </c>
       <c r="U28" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K28,BID)-L28)</f>
-        <v>4.8535619967537968E-12</v>
+        <v>4.4997869319551853E-10</v>
       </c>
       <c r="V28" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K28,ASK)-M28)</f>
-        <v>4.8535619967537968E-12</v>
+        <v>4.4997869319551853E-10</v>
       </c>
       <c r="W28" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O28,BID)-P28)</f>
-        <v>8.0875306451844153E-12</v>
+        <v>8.0383755207691365E-12</v>
       </c>
       <c r="X28" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O28,ASK)-Q28)</f>
-        <v>8.0875306451844153E-12</v>
+        <v>8.0383755207691365E-12</v>
       </c>
       <c r="Y28" s="66" t="s">
         <v>103</v>
@@ -8933,11 +8966,11 @@
       </c>
       <c r="H29" s="19">
         <f>'ON Pricing'!I29*100</f>
-        <v>6.164383562414702E-2</v>
+        <v>0.16520547945205175</v>
       </c>
       <c r="I29" s="19">
         <f t="shared" si="3"/>
-        <v>6.164383562414702E-2</v>
+        <v>0.16520547945205175</v>
       </c>
       <c r="J29" s="24" t="s">
         <v>39</v>
@@ -8948,11 +8981,11 @@
       </c>
       <c r="L29" s="19">
         <f>'3M Pricing'!I29*100</f>
-        <v>0.1144411514862462</v>
+        <v>0.22940019201576697</v>
       </c>
       <c r="M29" s="19">
         <f t="shared" si="4"/>
-        <v>0.1144411514862462</v>
+        <v>0.22940019201576697</v>
       </c>
       <c r="N29" s="24" t="s">
         <v>39</v>
@@ -8963,36 +8996,36 @@
       </c>
       <c r="P29" s="19">
         <f>'6M Pricing'!I29*100</f>
-        <v>0.15500000000000272</v>
+        <v>0.27250000001110641</v>
       </c>
       <c r="Q29" s="19">
         <f t="shared" si="5"/>
-        <v>0.15500000000000272</v>
+        <v>0.27250000001110641</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G29,BID)-H29)</f>
-        <v>3.7585297374409521E-10</v>
+        <v>4.5205175713824985E-10</v>
       </c>
       <c r="T29" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G29,ASK)-I29)</f>
-        <v>3.7585297374409521E-10</v>
+        <v>4.5205175713824985E-10</v>
       </c>
       <c r="U29" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K29,BID)-L29)</f>
-        <v>4.8624619608528263E-10</v>
+        <v>1.5766971062092239E-11</v>
       </c>
       <c r="V29" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K29,ASK)-M29)</f>
-        <v>4.8624619608528263E-10</v>
+        <v>1.5766971062092239E-11</v>
       </c>
       <c r="W29" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O29,BID)-P29)</f>
-        <v>2.7200464103316335E-15</v>
+        <v>1.110639358259391E-11</v>
       </c>
       <c r="X29" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O29,ASK)-Q29)</f>
-        <v>2.7200464103316335E-15</v>
+        <v>1.110639358259391E-11</v>
       </c>
       <c r="Y29" s="66" t="s">
         <v>103</v>
@@ -9052,11 +9085,11 @@
       </c>
       <c r="H30" s="19">
         <f>'ON Pricing'!I30*100</f>
-        <v>8.3835616443712416E-2</v>
+        <v>0.22191780821917981</v>
       </c>
       <c r="I30" s="19">
         <f t="shared" si="3"/>
-        <v>8.3835616443712416E-2</v>
+        <v>0.22191780821917981</v>
       </c>
       <c r="J30" s="24" t="s">
         <v>40</v>
@@ -9067,11 +9100,11 @@
       </c>
       <c r="L30" s="19">
         <f>'3M Pricing'!I30*100</f>
-        <v>0.15190497355302221</v>
+        <v>0.28932610438048911</v>
       </c>
       <c r="M30" s="19">
         <f t="shared" si="4"/>
-        <v>0.15190497355302221</v>
+        <v>0.28932610438048911</v>
       </c>
       <c r="N30" s="24" t="s">
         <v>40</v>
@@ -9082,36 +9115,36 @@
       </c>
       <c r="P30" s="19">
         <f>'6M Pricing'!I30*100</f>
-        <v>0.19499999999991924</v>
+        <v>0.33750000001316083</v>
       </c>
       <c r="Q30" s="19">
         <f t="shared" si="5"/>
-        <v>0.19499999999991924</v>
+        <v>0.33750000001316083</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G30,BID)-H30)</f>
-        <v>4.4371241403329265E-10</v>
+        <v>2.1917981318786417E-10</v>
       </c>
       <c r="T30" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G30,ASK)-I30)</f>
-        <v>4.4371241403329265E-10</v>
+        <v>2.1917981318786417E-10</v>
       </c>
       <c r="U30" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K30,BID)-L30)</f>
-        <v>4.4697778811553235E-10</v>
+        <v>3.8048908468368836E-10</v>
       </c>
       <c r="V30" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K30,ASK)-M30)</f>
-        <v>4.4697778811553235E-10</v>
+        <v>3.8048908468368836E-10</v>
       </c>
       <c r="W30" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O30,BID)-P30)</f>
-        <v>8.0768725041480138E-14</v>
+        <v>1.3160805778511531E-11</v>
       </c>
       <c r="X30" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O30,ASK)-Q30)</f>
-        <v>8.0768725041480138E-14</v>
+        <v>1.3160805778511531E-11</v>
       </c>
       <c r="Y30" s="66" t="s">
         <v>103</v>
@@ -9171,11 +9204,11 @@
       </c>
       <c r="H31" s="19">
         <f>'ON Pricing'!I31*100</f>
-        <v>0.11095890411350455</v>
+        <v>0.27863013698629718</v>
       </c>
       <c r="I31" s="19">
         <f t="shared" si="3"/>
-        <v>0.11095890411350455</v>
+        <v>0.27863013698629718</v>
       </c>
       <c r="J31" s="24" t="s">
         <v>41</v>
@@ -9186,11 +9219,11 @@
       </c>
       <c r="L31" s="19">
         <f>'3M Pricing'!I31*100</f>
-        <v>0.19436832591891962</v>
+        <v>0.35428695906710589</v>
       </c>
       <c r="M31" s="19">
         <f t="shared" si="4"/>
-        <v>0.19436832591891962</v>
+        <v>0.35428695906710589</v>
       </c>
       <c r="N31" s="24" t="s">
         <v>41</v>
@@ -9201,36 +9234,36 @@
       </c>
       <c r="P31" s="19">
         <f>'6M Pricing'!I31*100</f>
-        <v>0.24000000000002378</v>
+        <v>0.40500000001415204</v>
       </c>
       <c r="Q31" s="19">
         <f t="shared" si="5"/>
-        <v>0.24000000000002378</v>
+        <v>0.40500000001415204</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G31,BID)-H31)</f>
-        <v>1.1350455297876039E-10</v>
+        <v>1.3702816659133532E-11</v>
       </c>
       <c r="T31" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G31,ASK)-I31)</f>
-        <v>1.1350455297876039E-10</v>
+        <v>1.3702816659133532E-11</v>
       </c>
       <c r="U31" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K31,BID)-L31)</f>
-        <v>8.1080392400068035E-11</v>
+        <v>6.7105876411233112E-11</v>
       </c>
       <c r="V31" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K31,ASK)-M31)</f>
-        <v>8.1080392400068035E-11</v>
+        <v>6.7105876411233112E-11</v>
       </c>
       <c r="W31" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O31,BID)-P31)</f>
-        <v>2.3786528302593979E-14</v>
+        <v>1.4152068406048102E-11</v>
       </c>
       <c r="X31" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O31,ASK)-Q31)</f>
-        <v>2.3786528302593979E-14</v>
+        <v>1.4152068406048102E-11</v>
       </c>
       <c r="Y31" s="66" t="s">
         <v>103</v>
@@ -9290,11 +9323,11 @@
       </c>
       <c r="H32" s="19">
         <f>'ON Pricing'!I32*100</f>
-        <v>0.14301369863313179</v>
+        <v>0.3353424657534218</v>
       </c>
       <c r="I32" s="19">
         <f t="shared" si="3"/>
-        <v>0.14301369863313179</v>
+        <v>0.3353424657534218</v>
       </c>
       <c r="J32" s="24" t="s">
         <v>42</v>
@@ -9305,11 +9338,11 @@
       </c>
       <c r="L32" s="19">
         <f>'3M Pricing'!I32*100</f>
-        <v>0.23929603448656797</v>
+        <v>0.41671158687233434</v>
       </c>
       <c r="M32" s="19">
         <f t="shared" si="4"/>
-        <v>0.23929603448656797</v>
+        <v>0.41671158687233434</v>
       </c>
       <c r="N32" s="24" t="s">
         <v>42</v>
@@ -9320,36 +9353,36 @@
       </c>
       <c r="P32" s="19">
         <f>'6M Pricing'!I32*100</f>
-        <v>0.28999999999843551</v>
+        <v>0.47250000001416698</v>
       </c>
       <c r="Q32" s="19">
         <f t="shared" si="5"/>
-        <v>0.28999999999843551</v>
+        <v>0.47250000001416698</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G32,BID)-H32)</f>
-        <v>3.6686820248377217E-10</v>
+        <v>2.4657820230089555E-10</v>
       </c>
       <c r="T32" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G32,ASK)-I32)</f>
-        <v>3.6686820248377217E-10</v>
+        <v>2.4657820230089555E-10</v>
       </c>
       <c r="U32" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K32,BID)-L32)</f>
-        <v>4.8656795259560681E-10</v>
+        <v>1.2766565582467138E-10</v>
       </c>
       <c r="V32" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K32,ASK)-M32)</f>
-        <v>4.8656795259560681E-10</v>
+        <v>1.2766565582467138E-10</v>
       </c>
       <c r="W32" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O32,BID)-P32)</f>
-        <v>1.5644707751505393E-12</v>
+        <v>1.416700090572931E-11</v>
       </c>
       <c r="X32" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O32,ASK)-Q32)</f>
-        <v>1.5644707751505393E-12</v>
+        <v>1.416700090572931E-11</v>
       </c>
       <c r="Y32" s="66" t="s">
         <v>103</v>
@@ -9409,11 +9442,11 @@
       </c>
       <c r="H33" s="19">
         <f>'ON Pricing'!I33*100</f>
-        <v>0.17260273972836099</v>
+        <v>0.38712328767123549</v>
       </c>
       <c r="I33" s="19">
         <f t="shared" si="3"/>
-        <v>0.17260273972836099</v>
+        <v>0.38712328767123549</v>
       </c>
       <c r="J33" s="24" t="s">
         <v>43</v>
@@ -9424,11 +9457,11 @@
       </c>
       <c r="L33" s="19">
         <f>'3M Pricing'!I33*100</f>
-        <v>0.28418826067681263</v>
+        <v>0.47913594879901877</v>
       </c>
       <c r="M33" s="19">
         <f t="shared" si="4"/>
-        <v>0.28418826067681263</v>
+        <v>0.47913594879901877</v>
       </c>
       <c r="N33" s="24" t="s">
         <v>43</v>
@@ -9439,36 +9472,36 @@
       </c>
       <c r="P33" s="19">
         <f>'6M Pricing'!I33*100</f>
-        <v>0.34250000000510328</v>
+        <v>0.54000000001196735</v>
       </c>
       <c r="Q33" s="19">
         <f t="shared" si="5"/>
-        <v>0.34250000000510328</v>
+        <v>0.54000000001196735</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G33,BID)-H33)</f>
-        <v>2.7163901683557867E-10</v>
+        <v>3.2876451561136832E-10</v>
       </c>
       <c r="T33" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G33,ASK)-I33)</f>
-        <v>2.7163901683557867E-10</v>
+        <v>3.2876451561136832E-10</v>
       </c>
       <c r="U33" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K33,BID)-L33)</f>
-        <v>3.2318736575831508E-10</v>
+        <v>2.0098117614608668E-10</v>
       </c>
       <c r="V33" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K33,ASK)-M33)</f>
-        <v>3.2318736575831508E-10</v>
+        <v>2.0098117614608668E-10</v>
       </c>
       <c r="W33" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O33,BID)-P33)</f>
-        <v>5.1033066661432258E-12</v>
+        <v>1.1967316027039487E-11</v>
       </c>
       <c r="X33" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O33,ASK)-Q33)</f>
-        <v>5.1033066661432258E-12</v>
+        <v>1.1967316027039487E-11</v>
       </c>
       <c r="Y33" s="66" t="s">
         <v>103</v>
@@ -9528,11 +9561,11 @@
       </c>
       <c r="H34" s="19">
         <f>'ON Pricing'!I34*100</f>
-        <v>0.20465753424846136</v>
+        <v>0.44630136986301894</v>
       </c>
       <c r="I34" s="19">
         <f t="shared" si="3"/>
-        <v>0.20465753424846136</v>
+        <v>0.44630136986301894</v>
       </c>
       <c r="J34" s="24" t="s">
         <v>44</v>
@@ -9543,11 +9576,11 @@
       </c>
       <c r="L34" s="19">
         <f>'3M Pricing'!I34*100</f>
-        <v>0.32907960870195718</v>
+        <v>0.54409513177083935</v>
       </c>
       <c r="M34" s="19">
         <f t="shared" si="4"/>
-        <v>0.32907960870195718</v>
+        <v>0.54409513177083935</v>
       </c>
       <c r="N34" s="24" t="s">
         <v>44</v>
@@ -9558,36 +9591,36 @@
       </c>
       <c r="P34" s="19">
         <f>'6M Pricing'!I34*100</f>
-        <v>0.39499999998386565</v>
+        <v>0.60750000000495286</v>
       </c>
       <c r="Q34" s="19">
         <f t="shared" si="5"/>
-        <v>0.39499999998386565</v>
+        <v>0.60750000000495286</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G34,BID)-H34)</f>
-        <v>2.4846136259526475E-10</v>
+        <v>1.3698109313509121E-10</v>
       </c>
       <c r="T34" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G34,ASK)-I34)</f>
-        <v>2.4846136259526475E-10</v>
+        <v>1.3698109313509121E-10</v>
       </c>
       <c r="U34" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K34,BID)-L34)</f>
-        <v>2.9804281265199961E-10</v>
+        <v>2.2916069042366871E-10</v>
       </c>
       <c r="V34" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K34,ASK)-M34)</f>
-        <v>2.9804281265199961E-10</v>
+        <v>2.2916069042366871E-10</v>
       </c>
       <c r="W34" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O34,BID)-P34)</f>
-        <v>1.6134371616516319E-11</v>
+        <v>4.9528159351552858E-12</v>
       </c>
       <c r="X34" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O34,ASK)-Q34)</f>
-        <v>1.6134371616516319E-11</v>
+        <v>4.9528159351552858E-12</v>
       </c>
       <c r="Y34" s="66" t="s">
         <v>103</v>
@@ -9647,11 +9680,11 @@
       </c>
       <c r="H35" s="19">
         <f>'ON Pricing'!I35*100</f>
-        <v>0.2983561643853157</v>
+        <v>0.57698630136968099</v>
       </c>
       <c r="I35" s="19">
         <f t="shared" si="3"/>
-        <v>0.2983561643853157</v>
+        <v>0.57698630136968099</v>
       </c>
       <c r="J35" s="24" t="s">
         <v>45</v>
@@ -9662,11 +9695,11 @@
       </c>
       <c r="L35" s="19">
         <f>'3M Pricing'!I35*100</f>
-        <v>0.43418598704126066</v>
+        <v>0.68545266202302657</v>
       </c>
       <c r="M35" s="19">
         <f t="shared" si="4"/>
-        <v>0.43418598704126066</v>
+        <v>0.68545266202302657</v>
       </c>
       <c r="N35" s="24" t="s">
         <v>45</v>
@@ -9677,36 +9710,36 @@
       </c>
       <c r="P35" s="19">
         <f>'6M Pricing'!I35*100</f>
-        <v>0.50750003309864744</v>
+        <v>0.7499999999981064</v>
       </c>
       <c r="Q35" s="19">
         <f t="shared" si="5"/>
-        <v>0.50750003309864744</v>
+        <v>0.7499999999981064</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G35,BID)-H35)</f>
-        <v>3.85315723772095E-10</v>
+        <v>3.6968095251666E-10</v>
       </c>
       <c r="T35" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G35,ASK)-I35)</f>
-        <v>3.85315723772095E-10</v>
+        <v>3.6968095251666E-10</v>
       </c>
       <c r="U35" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K35,BID)-L35)</f>
-        <v>4.1260606042925474E-11</v>
+        <v>2.3026580642238059E-11</v>
       </c>
       <c r="V35" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K35,ASK)-M35)</f>
-        <v>4.1260606042925474E-11</v>
+        <v>2.3026580642238059E-11</v>
       </c>
       <c r="W35" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O35,BID)-P35)</f>
-        <v>9.8647423563136272E-11</v>
+        <v>1.893596390800667E-12</v>
       </c>
       <c r="X35" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O35,ASK)-Q35)</f>
-        <v>9.8647423563136272E-11</v>
+        <v>1.893596390800667E-12</v>
       </c>
       <c r="Y35" s="66" t="s">
         <v>103</v>
@@ -9766,11 +9799,11 @@
       </c>
       <c r="H36" s="19">
         <f>'ON Pricing'!I36*100</f>
-        <v>0.47095890410926461</v>
+        <v>0.78410958904125483</v>
       </c>
       <c r="I36" s="19">
         <f t="shared" si="3"/>
-        <v>0.47095890410926461</v>
+        <v>0.78410958904125483</v>
       </c>
       <c r="J36" s="24" t="s">
         <v>46</v>
@@ -9781,11 +9814,11 @@
       </c>
       <c r="L36" s="19">
         <f>'3M Pricing'!I36*100</f>
-        <v>0.60626695128014974</v>
+        <v>0.89653066965921013</v>
       </c>
       <c r="M36" s="19">
         <f t="shared" si="4"/>
-        <v>0.60626695128014974</v>
+        <v>0.89653066965921013</v>
       </c>
       <c r="N36" s="24" t="s">
         <v>46</v>
@@ -9796,36 +9829,36 @@
       </c>
       <c r="P36" s="19">
         <f>'6M Pricing'!I36*100</f>
-        <v>0.69250003632417867</v>
+        <v>0.96249999999892155</v>
       </c>
       <c r="Q36" s="19">
         <f t="shared" si="5"/>
-        <v>0.69250003632417867</v>
+        <v>0.96249999999892155</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G36,BID)-H36)</f>
-        <v>1.0926459736992911E-10</v>
+        <v>4.1254777372046192E-11</v>
       </c>
       <c r="T36" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G36,ASK)-I36)</f>
-        <v>1.0926459736992911E-10</v>
+        <v>4.1254777372046192E-11</v>
       </c>
       <c r="U36" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K36,BID)-L36)</f>
-        <v>2.8014968123102335E-10</v>
+        <v>3.4078984079144448E-10</v>
       </c>
       <c r="V36" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K36,ASK)-M36)</f>
-        <v>2.8014968123102335E-10</v>
+        <v>3.4078984079144448E-10</v>
       </c>
       <c r="W36" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O36,BID)-P36)</f>
-        <v>3.2417868389700288E-10</v>
+        <v>1.0784706461208771E-12</v>
       </c>
       <c r="X36" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O36,ASK)-Q36)</f>
-        <v>3.2417868389700288E-10</v>
+        <v>1.0784706461208771E-12</v>
       </c>
       <c r="Y36" s="66" t="s">
         <v>103</v>
@@ -9885,11 +9918,11 @@
       </c>
       <c r="H37" s="19">
         <f>'ON Pricing'!I37*100</f>
-        <v>0.70767123287633538</v>
+        <v>1.0528767123287599</v>
       </c>
       <c r="I37" s="19">
         <f t="shared" si="3"/>
-        <v>0.70767123287633538</v>
+        <v>1.0528767123287599</v>
       </c>
       <c r="J37" s="24" t="s">
         <v>47</v>
@@ -9900,11 +9933,11 @@
       </c>
       <c r="L37" s="19">
         <f>'3M Pricing'!I37*100</f>
-        <v>0.84870438973055695</v>
+        <v>1.1715085732188777</v>
       </c>
       <c r="M37" s="19">
         <f t="shared" si="4"/>
-        <v>0.84870438973055695</v>
+        <v>1.1715085732188777</v>
       </c>
       <c r="N37" s="24" t="s">
         <v>47</v>
@@ -9915,36 +9948,36 @@
       </c>
       <c r="P37" s="19">
         <f>'6M Pricing'!I37*100</f>
-        <v>0.93750005387835278</v>
+        <v>1.2375000000003722</v>
       </c>
       <c r="Q37" s="19">
         <f t="shared" si="5"/>
-        <v>0.93750005387835278</v>
+        <v>1.2375000000003722</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G37,BID)-H37)</f>
-        <v>1.2366463408852724E-10</v>
+        <v>3.2875990818581613E-10</v>
       </c>
       <c r="T37" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G37,ASK)-I37)</f>
-        <v>1.2366463408852724E-10</v>
+        <v>3.2875990818581613E-10</v>
       </c>
       <c r="U37" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K37,BID)-L37)</f>
-        <v>2.6944302344844573E-10</v>
+        <v>2.1887758272498559E-10</v>
       </c>
       <c r="V37" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K37,ASK)-M37)</f>
-        <v>2.6944302344844573E-10</v>
+        <v>2.1887758272498559E-10</v>
       </c>
       <c r="W37" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O37,BID)-P37)</f>
-        <v>1.2164724783048086E-10</v>
+        <v>3.7214675785435247E-13</v>
       </c>
       <c r="X37" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O37,ASK)-Q37)</f>
-        <v>1.2164724783048086E-10</v>
+        <v>3.7214675785435247E-13</v>
       </c>
       <c r="Y37" s="66" t="s">
         <v>103</v>
@@ -10004,11 +10037,11 @@
       </c>
       <c r="H38" s="19">
         <f>'ON Pricing'!I38*100</f>
-        <v>0.83342465753430528</v>
+        <v>1.2032876712319471</v>
       </c>
       <c r="I38" s="19">
         <f t="shared" si="3"/>
-        <v>0.83342465753430528</v>
+        <v>1.2032876712319471</v>
       </c>
       <c r="J38" s="24" t="s">
         <v>48</v>
@@ -10019,11 +10052,11 @@
       </c>
       <c r="L38" s="19">
         <f>'3M Pricing'!I38*100</f>
-        <v>0.97843234738785156</v>
+        <v>1.3201884481927817</v>
       </c>
       <c r="M38" s="19">
         <f t="shared" si="4"/>
-        <v>0.97843234738785156</v>
+        <v>1.3201884481927817</v>
       </c>
       <c r="N38" s="24" t="s">
         <v>48</v>
@@ -10034,36 +10067,36 @@
       </c>
       <c r="P38" s="19">
         <f>'6M Pricing'!I38*100</f>
-        <v>1.067500046532329</v>
+        <v>1.392499999996176</v>
       </c>
       <c r="Q38" s="19">
         <f t="shared" si="5"/>
-        <v>1.067500046532329</v>
+        <v>1.392499999996176</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G38,BID)-H38)</f>
-        <v>4.6569470502078048E-10</v>
+        <v>2.3194712817087293E-10</v>
       </c>
       <c r="T38" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$G38,ASK)-I38)</f>
-        <v>4.6569470502078048E-10</v>
+        <v>2.3194712817087293E-10</v>
       </c>
       <c r="U38" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K38,BID)-L38)</f>
-        <v>3.8785152867149009E-10</v>
+        <v>1.9278156848656636E-10</v>
       </c>
       <c r="V38" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$K38,ASK)-M38)</f>
-        <v>3.8785152867149009E-10</v>
+        <v>1.9278156848656636E-10</v>
       </c>
       <c r="W38" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O38,BID)-P38)</f>
-        <v>4.6767101302691572E-10</v>
+        <v>3.8240521860188892E-12</v>
       </c>
       <c r="X38" s="19">
         <f>ABS(_xll.RtGet(SourceAlias,$O38,ASK)-Q38)</f>
-        <v>4.6767101302691572E-10</v>
+        <v>3.8240521860188892E-12</v>
       </c>
       <c r="Y38" s="66" t="s">
         <v>103</v>
@@ -10123,11 +10156,11 @@
       </c>
       <c r="H39" s="21">
         <f>'ON Pricing'!I39*100</f>
-        <v>0.9024657534249777</v>
+        <v>1.2772602739706949</v>
       </c>
       <c r="I39" s="21">
         <f t="shared" si="3"/>
-        <v>0.9024657534249777</v>
+        <v>1.2772602739706949</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>49</v>
@@ -10138,11 +10171,11 @@
       </c>
       <c r="L39" s="21">
         <f>'3M Pricing'!I39*100</f>
-        <v>1.0486829673407698</v>
+        <v>1.403951520804509</v>
       </c>
       <c r="M39" s="21">
         <f t="shared" si="4"/>
-        <v>1.0486829673407698</v>
+        <v>1.403951520804509</v>
       </c>
       <c r="N39" s="25" t="s">
         <v>49</v>
@@ -10153,36 +10186,36 @@
       </c>
       <c r="P39" s="21">
         <f>'6M Pricing'!I39*100</f>
-        <v>1.1375000463931351</v>
+        <v>1.4724999999963488</v>
       </c>
       <c r="Q39" s="21">
         <f t="shared" si="5"/>
-        <v>1.1375000463931351</v>
+        <v>1.4724999999963488</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="21">
         <f>ABS(_xll.RtGet(SourceAlias,$G39,BID)-H39)</f>
-        <v>4.2497760865956025E-10</v>
+        <v>2.9305224913400707E-11</v>
       </c>
       <c r="T39" s="21">
         <f>ABS(_xll.RtGet(SourceAlias,$G39,ASK)-I39)</f>
-        <v>4.2497760865956025E-10</v>
+        <v>2.9305224913400707E-11</v>
       </c>
       <c r="U39" s="21">
         <f>ABS(_xll.RtGet(SourceAlias,$K39,BID)-L39)</f>
-        <v>3.4076985677700122E-10</v>
+        <v>1.9549095675586159E-10</v>
       </c>
       <c r="V39" s="21">
         <f>ABS(_xll.RtGet(SourceAlias,$K39,ASK)-M39)</f>
-        <v>3.4076985677700122E-10</v>
+        <v>1.9549095675586159E-10</v>
       </c>
       <c r="W39" s="21">
         <f>ABS(_xll.RtGet(SourceAlias,$O39,BID)-P39)</f>
-        <v>3.9313508004568121E-10</v>
+        <v>3.6510794387822898E-12</v>
       </c>
       <c r="X39" s="21">
         <f>ABS(_xll.RtGet(SourceAlias,$O39,ASK)-Q39)</f>
-        <v>3.9313508004568121E-10</v>
+        <v>3.6510794387822898E-12</v>
       </c>
       <c r="Y39" s="66" t="s">
         <v>103</v>
@@ -13448,6 +13481,10 @@
       <c r="AY100" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection password="C760" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="C2" name="Range1"/>
+  </protectedRanges>
   <conditionalFormatting sqref="C2">
     <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"abcd"</formula>
@@ -13464,7 +13501,7 @@
   <dimension ref="A1:AD101"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -13666,19 +13703,19 @@
       </c>
       <c r="F6" s="75">
         <f t="shared" ref="F6" si="0">EvaluationDate</f>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G6" s="75">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,F6)</f>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="H6" s="75">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,G6)</f>
-        <v>42024</v>
+        <v>42149</v>
       </c>
       <c r="I6" s="76">
         <f>_xll.qlIndexFixing(OvernightIndex,F6,TRUE,InterestRatesTrigger)</f>
-        <v>6.4385613817052878E-4</v>
+        <v>6.6984645538078114E-4</v>
       </c>
       <c r="J6" s="63" t="str">
         <f>Contribution!G6</f>
@@ -13688,7 +13725,7 @@
       <c r="L6" s="114"/>
       <c r="M6" s="81" t="str">
         <f>_xll.qlOvernightIndex(,"Tonar",0,Currency,LocalCalendar,"Actual/365 (Fixed)",YieldCurve,,Trigger)</f>
-        <v>obj_00488#0000</v>
+        <v>obj_00451#0011</v>
       </c>
       <c r="N6" s="66"/>
       <c r="O6" s="66"/>
@@ -13716,19 +13753,19 @@
       </c>
       <c r="F7" s="78">
         <f>H6</f>
-        <v>42024</v>
+        <v>42149</v>
       </c>
       <c r="G7" s="78">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,F7)</f>
-        <v>42024</v>
+        <v>42149</v>
       </c>
       <c r="H7" s="78">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,G7)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="I7" s="77">
         <f>_xll.qlIndexFixing(OvernightIndex,F7,TRUE,InterestRatesTrigger)</f>
-        <v>6.4388445258023452E-4</v>
+        <v>6.6995004349590381E-4</v>
       </c>
       <c r="J7" s="63" t="str">
         <f>Contribution!G7</f>
@@ -13763,19 +13800,19 @@
       </c>
       <c r="F8" s="79">
         <f>H7</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="G8" s="79">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,F8)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H8" s="79">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,G8)</f>
-        <v>42026</v>
+        <v>42151</v>
       </c>
       <c r="I8" s="80">
         <f>_xll.qlIndexFixing(OvernightIndex,F8,TRUE,InterestRatesTrigger)</f>
-        <v>6.4394108123755345E-4</v>
+        <v>6.7003988694525063E-4</v>
       </c>
       <c r="J8" s="63" t="str">
         <f>Contribution!G8</f>
@@ -13817,15 +13854,15 @@
       <c r="F9" s="78"/>
       <c r="G9" s="78">
         <f>_xll.qlSwapStartDate(M9)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H9" s="78">
         <f>_xll.qlSwapMaturityDate(M9)</f>
-        <v>42032</v>
+        <v>42157</v>
       </c>
       <c r="I9" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M9,InterestRatesTrigger)</f>
-        <v>6.3551430724752462E-4</v>
+        <v>6.6130796651313903E-4</v>
       </c>
       <c r="J9" s="64" t="str">
         <f>Contribution!G9</f>
@@ -13834,8 +13871,8 @@
       <c r="K9" s="64"/>
       <c r="L9" s="114"/>
       <c r="M9" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D9="SW","1W",D9),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_00492#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D9="SW","1W",D9),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_0045b#0011</v>
       </c>
       <c r="N9" s="66"/>
       <c r="O9" s="22" t="s">
@@ -13868,15 +13905,15 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78">
         <f>_xll.qlSwapStartDate(M10)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H10" s="78">
         <f>_xll.qlSwapMaturityDate(M10)</f>
-        <v>42039</v>
+        <v>42164</v>
       </c>
       <c r="I10" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M10,InterestRatesTrigger)</f>
-        <v>6.3639793889537705E-4</v>
+        <v>6.6216513644246078E-4</v>
       </c>
       <c r="J10" s="63" t="str">
         <f>Contribution!G10</f>
@@ -13885,8 +13922,8 @@
       <c r="K10" s="63"/>
       <c r="L10" s="114"/>
       <c r="M10" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D10="SW","1W",D10),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_004a2#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D10="SW","1W",D10),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00461#0011</v>
       </c>
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
@@ -13915,15 +13952,15 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78">
         <f>_xll.qlSwapStartDate(M11)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H11" s="78">
         <f>_xll.qlSwapMaturityDate(M11)</f>
-        <v>42047</v>
+        <v>42171</v>
       </c>
       <c r="I11" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M11,InterestRatesTrigger)</f>
-        <v>6.3796638120647037E-4</v>
+        <v>6.6338417714132249E-4</v>
       </c>
       <c r="J11" s="63" t="str">
         <f>Contribution!G11</f>
@@ -13932,8 +13969,8 @@
       <c r="K11" s="63"/>
       <c r="L11" s="114"/>
       <c r="M11" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D11="SW","1W",D11),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_004ab#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D11="SW","1W",D11),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00474#0013</v>
       </c>
       <c r="N11" s="66"/>
       <c r="O11" s="66"/>
@@ -13962,15 +13999,15 @@
       <c r="F12" s="78"/>
       <c r="G12" s="78">
         <f>_xll.qlSwapStartDate(M12)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H12" s="78">
         <f>_xll.qlSwapMaturityDate(M12)</f>
-        <v>42058</v>
+        <v>42181</v>
       </c>
       <c r="I12" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M12,InterestRatesTrigger)</f>
-        <v>6.4109589073314442E-4</v>
+        <v>6.6575342692914096E-4</v>
       </c>
       <c r="J12" s="63" t="str">
         <f>Contribution!G12</f>
@@ -13982,8 +14019,8 @@
       </c>
       <c r="L12" s="114"/>
       <c r="M12" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D12="SW","1W",D12),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_00496#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D12="SW","1W",D12),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00472#0013</v>
       </c>
       <c r="N12" s="66"/>
       <c r="O12" s="66"/>
@@ -14012,15 +14049,15 @@
       <c r="F13" s="78"/>
       <c r="G13" s="78">
         <f>_xll.qlSwapStartDate(M13)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H13" s="78">
         <f>_xll.qlSwapMaturityDate(M13)</f>
-        <v>42086</v>
+        <v>42212</v>
       </c>
       <c r="I13" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M13,InterestRatesTrigger)</f>
-        <v>6.1643835488319788E-4</v>
+        <v>6.657534230329027E-4</v>
       </c>
       <c r="J13" s="63" t="str">
         <f>Contribution!G13</f>
@@ -14032,8 +14069,8 @@
       </c>
       <c r="L13" s="114"/>
       <c r="M13" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D13="SW","1W",D13),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_0048b#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D13="SW","1W",D13),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_0046a#0011</v>
       </c>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -14062,15 +14099,15 @@
       <c r="F14" s="78"/>
       <c r="G14" s="78">
         <f>_xll.qlSwapStartDate(M14)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H14" s="78">
         <f>_xll.qlSwapMaturityDate(M14)</f>
-        <v>42115</v>
+        <v>42242</v>
       </c>
       <c r="I14" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M14,InterestRatesTrigger)</f>
-        <v>5.178082180332666E-4</v>
+        <v>6.4109589060923832E-4</v>
       </c>
       <c r="J14" s="63" t="str">
         <f>Contribution!G14</f>
@@ -14082,8 +14119,8 @@
       </c>
       <c r="L14" s="114"/>
       <c r="M14" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D14="SW","1W",D14),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_0049c#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D14="SW","1W",D14),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00453#0011</v>
       </c>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -14112,15 +14149,15 @@
       <c r="F15" s="78"/>
       <c r="G15" s="78">
         <f>_xll.qlSwapStartDate(M15)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H15" s="78">
         <f>_xll.qlSwapMaturityDate(M15)</f>
-        <v>42145</v>
+        <v>42275</v>
       </c>
       <c r="I15" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M15,InterestRatesTrigger)</f>
-        <v>4.6849314990438096E-4</v>
+        <v>6.1643835611192811E-4</v>
       </c>
       <c r="J15" s="63" t="str">
         <f>Contribution!G15</f>
@@ -14132,8 +14169,8 @@
       </c>
       <c r="L15" s="114"/>
       <c r="M15" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D15="SW","1W",D15),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_004ad#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D15="SW","1W",D15),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00463#0011</v>
       </c>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -14162,15 +14199,15 @@
       <c r="F16" s="78"/>
       <c r="G16" s="78">
         <f>_xll.qlSwapStartDate(M16)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H16" s="78">
         <f>_xll.qlSwapMaturityDate(M16)</f>
-        <v>42177</v>
+        <v>42303</v>
       </c>
       <c r="I16" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M16,InterestRatesTrigger)</f>
-        <v>4.4383561574989905E-4</v>
+        <v>6.1643835617300967E-4</v>
       </c>
       <c r="J16" s="63" t="str">
         <f>Contribution!G16</f>
@@ -14182,8 +14219,8 @@
       </c>
       <c r="L16" s="114"/>
       <c r="M16" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D16="SW","1W",D16),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_00499#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D16="SW","1W",D16),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00459#0011</v>
       </c>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -14212,15 +14249,15 @@
       <c r="F17" s="78"/>
       <c r="G17" s="78">
         <f>_xll.qlSwapStartDate(M17)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H17" s="78">
         <f>_xll.qlSwapMaturityDate(M17)</f>
-        <v>42206</v>
+        <v>42334</v>
       </c>
       <c r="I17" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M17,InterestRatesTrigger)</f>
-        <v>4.1917808167474594E-4</v>
+        <v>5.9178082191753715E-4</v>
       </c>
       <c r="J17" s="63" t="str">
         <f>Contribution!G17</f>
@@ -14232,8 +14269,8 @@
       </c>
       <c r="L17" s="114"/>
       <c r="M17" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D17="SW","1W",D17),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_00494#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D17="SW","1W",D17),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_0046e#0013</v>
       </c>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -14262,22 +14299,22 @@
       <c r="F18" s="78"/>
       <c r="G18" s="78">
         <f>_xll.qlSwapStartDate(M18)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H18" s="78">
         <f>_xll.qlSwapMaturityDate(M18)</f>
-        <v>42237</v>
+        <v>42366</v>
       </c>
       <c r="I18" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M18,InterestRatesTrigger)</f>
-        <v>4.054535723012788E-4</v>
+        <v>5.7471304012235447E-4</v>
       </c>
       <c r="J18" s="63"/>
       <c r="K18" s="63"/>
       <c r="L18" s="114"/>
       <c r="M18" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D18="SW","1W",D18),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_004a1#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D18="SW","1W",D18),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00454#0011</v>
       </c>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -14306,22 +14343,22 @@
       <c r="F19" s="78"/>
       <c r="G19" s="78">
         <f>_xll.qlSwapStartDate(M19)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H19" s="78">
         <f>_xll.qlSwapMaturityDate(M19)</f>
-        <v>42271</v>
+        <v>42395</v>
       </c>
       <c r="I19" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M19,InterestRatesTrigger)</f>
-        <v>3.9917388236978223E-4</v>
+        <v>5.6885593545410724E-4</v>
       </c>
       <c r="J19" s="63"/>
       <c r="K19" s="63"/>
       <c r="L19" s="114"/>
       <c r="M19" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D19="SW","1W",D19),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_0048d#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D19="SW","1W",D19),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00468#0011</v>
       </c>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -14350,15 +14387,15 @@
       <c r="F20" s="78"/>
       <c r="G20" s="78">
         <f>_xll.qlSwapStartDate(M20)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H20" s="78">
         <f>_xll.qlSwapMaturityDate(M20)</f>
-        <v>42298</v>
+        <v>42426</v>
       </c>
       <c r="I20" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M20,InterestRatesTrigger)</f>
-        <v>3.9452054828593693E-4</v>
+        <v>5.6712328767138942E-4</v>
       </c>
       <c r="J20" s="63" t="str">
         <f>Contribution!G20</f>
@@ -14370,8 +14407,8 @@
       </c>
       <c r="L20" s="114"/>
       <c r="M20" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D20="SW","1W",D20),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_004a9#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D20="SW","1W",D20),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00466#0011</v>
       </c>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
@@ -14400,22 +14437,22 @@
       <c r="F21" s="78"/>
       <c r="G21" s="78">
         <f>_xll.qlSwapStartDate(M21)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H21" s="78">
         <f>_xll.qlSwapMaturityDate(M21)</f>
-        <v>42332</v>
+        <v>42457</v>
       </c>
       <c r="I21" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M21,InterestRatesTrigger)</f>
-        <v>3.8570366843674675E-4</v>
+        <v>5.6691084905973648E-4</v>
       </c>
       <c r="J21" s="63"/>
       <c r="K21" s="63"/>
       <c r="L21" s="114"/>
       <c r="M21" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D21="SW","1W",D21),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_004a3#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D21="SW","1W",D21),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00470#0013</v>
       </c>
       <c r="N21" s="66"/>
       <c r="O21" s="66"/>
@@ -14444,22 +14481,22 @@
       <c r="F22" s="78"/>
       <c r="G22" s="78">
         <f>_xll.qlSwapStartDate(M22)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H22" s="78">
         <f>_xll.qlSwapMaturityDate(M22)</f>
-        <v>42359</v>
+        <v>42486</v>
       </c>
       <c r="I22" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M22,InterestRatesTrigger)</f>
-        <v>3.7788635597076314E-4</v>
+        <v>5.6707372609678315E-4</v>
       </c>
       <c r="J22" s="63"/>
       <c r="K22" s="63"/>
       <c r="L22" s="114"/>
       <c r="M22" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D22="SW","1W",D22),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_0049d#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D22="SW","1W",D22),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00457#0011</v>
       </c>
       <c r="N22" s="66"/>
       <c r="O22" s="66"/>
@@ -14488,15 +14525,15 @@
       <c r="F23" s="78"/>
       <c r="G23" s="78">
         <f>_xll.qlSwapStartDate(M23)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H23" s="78">
         <f>_xll.qlSwapMaturityDate(M23)</f>
-        <v>42390</v>
+        <v>42516</v>
       </c>
       <c r="I23" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M23,InterestRatesTrigger)</f>
-        <v>3.6986301395356357E-4</v>
+        <v>5.6712328767128024E-4</v>
       </c>
       <c r="J23" s="63" t="str">
         <f>Contribution!G23</f>
@@ -14508,8 +14545,8 @@
       </c>
       <c r="L23" s="114"/>
       <c r="M23" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D23="SW","1W",D23),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_00493#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D23="SW","1W",D23),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_0046d#0013</v>
       </c>
       <c r="N23" s="66"/>
       <c r="O23" s="66"/>
@@ -14538,22 +14575,22 @@
       <c r="F24" s="78"/>
       <c r="G24" s="78">
         <f>_xll.qlSwapStartDate(M24)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H24" s="78">
         <f>_xll.qlSwapMaturityDate(M24)</f>
-        <v>42481</v>
+        <v>42608</v>
       </c>
       <c r="I24" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M24,InterestRatesTrigger)</f>
-        <v>3.5573712562277549E-4</v>
+        <v>5.6589458409803887E-4</v>
       </c>
       <c r="J24" s="63"/>
       <c r="K24" s="63"/>
       <c r="L24" s="114"/>
       <c r="M24" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D24="SW","1W",D24),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_004a6#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D24="SW","1W",D24),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00465#0011</v>
       </c>
       <c r="N24" s="66"/>
       <c r="O24" s="66"/>
@@ -14582,15 +14619,15 @@
       <c r="F25" s="78"/>
       <c r="G25" s="78">
         <f>_xll.qlSwapStartDate(M25)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H25" s="78">
         <f>_xll.qlSwapMaturityDate(M25)</f>
-        <v>42572</v>
+        <v>42702</v>
       </c>
       <c r="I25" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M25,InterestRatesTrigger)</f>
-        <v>3.4520547988156863E-4</v>
+        <v>5.6712328767119372E-4</v>
       </c>
       <c r="J25" s="63" t="str">
         <f>Contribution!G25</f>
@@ -14602,8 +14639,8 @@
       </c>
       <c r="L25" s="114"/>
       <c r="M25" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D25="SW","1W",D25),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_0049e#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D25="SW","1W",D25),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_0045d#0011</v>
       </c>
       <c r="N25" s="66"/>
       <c r="O25" s="66"/>
@@ -14632,15 +14669,15 @@
       <c r="F26" s="78"/>
       <c r="G26" s="78">
         <f>_xll.qlSwapStartDate(M26)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H26" s="78">
         <f>_xll.qlSwapMaturityDate(M26)</f>
-        <v>42758</v>
+        <v>42881</v>
       </c>
       <c r="I26" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M26,InterestRatesTrigger)</f>
-        <v>3.4520547993543152E-4</v>
+        <v>5.9178082191775117E-4</v>
       </c>
       <c r="J26" s="63" t="str">
         <f>Contribution!G26</f>
@@ -14652,8 +14689,8 @@
       </c>
       <c r="L26" s="114"/>
       <c r="M26" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D26="SW","1W",D26),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_004a0#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D26="SW","1W",D26),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_0045f#0011</v>
       </c>
       <c r="N26" s="66"/>
       <c r="O26" s="66"/>
@@ -14682,15 +14719,15 @@
       <c r="F27" s="78"/>
       <c r="G27" s="78">
         <f>_xll.qlSwapStartDate(M27)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H27" s="78">
         <f>_xll.qlSwapMaturityDate(M27)</f>
-        <v>43122</v>
+        <v>43248</v>
       </c>
       <c r="I27" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M27,InterestRatesTrigger)</f>
-        <v>4.6849315089833268E-4</v>
+        <v>7.890410958904323E-4</v>
       </c>
       <c r="J27" s="63" t="str">
         <f>Contribution!G27</f>
@@ -14702,8 +14739,8 @@
       </c>
       <c r="L27" s="114"/>
       <c r="M27" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D27="SW","1W",D27),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_00489#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D27="SW","1W",D27),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00469#0011</v>
       </c>
       <c r="N27" s="66"/>
       <c r="O27" s="66"/>
@@ -14732,15 +14769,15 @@
       <c r="F28" s="78"/>
       <c r="G28" s="78">
         <f>_xll.qlSwapStartDate(M28)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H28" s="78">
         <f>_xll.qlSwapMaturityDate(M28)</f>
-        <v>43486</v>
+        <v>43612</v>
       </c>
       <c r="I28" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M28,InterestRatesTrigger)</f>
-        <v>4.1917808231201113E-4</v>
+        <v>1.15890410958903E-3</v>
       </c>
       <c r="J28" s="63" t="str">
         <f>Contribution!G28</f>
@@ -14752,8 +14789,8 @@
       </c>
       <c r="L28" s="114"/>
       <c r="M28" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D28="SW","1W",D28),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_004a5#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D28="SW","1W",D28),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00473#0013</v>
       </c>
       <c r="N28" s="66"/>
       <c r="O28" s="66"/>
@@ -14782,15 +14819,15 @@
       <c r="F29" s="78"/>
       <c r="G29" s="78">
         <f>_xll.qlSwapStartDate(M29)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H29" s="78">
         <f>_xll.qlSwapMaturityDate(M29)</f>
-        <v>43851</v>
+        <v>43977</v>
       </c>
       <c r="I29" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M29,InterestRatesTrigger)</f>
-        <v>6.1643835624147021E-4</v>
+        <v>1.6520547945205173E-3</v>
       </c>
       <c r="J29" s="63" t="str">
         <f>Contribution!G29</f>
@@ -14802,8 +14839,8 @@
       </c>
       <c r="L29" s="114"/>
       <c r="M29" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D29="SW","1W",D29),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_0048f#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D29="SW","1W",D29),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00464#0011</v>
       </c>
       <c r="N29" s="66"/>
       <c r="O29" s="66"/>
@@ -14832,15 +14869,15 @@
       <c r="F30" s="78"/>
       <c r="G30" s="78">
         <f>_xll.qlSwapStartDate(M30)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H30" s="78">
         <f>_xll.qlSwapMaturityDate(M30)</f>
-        <v>44217</v>
+        <v>44342</v>
       </c>
       <c r="I30" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M30,InterestRatesTrigger)</f>
-        <v>8.3835616443712414E-4</v>
+        <v>2.2191780821917981E-3</v>
       </c>
       <c r="J30" s="63" t="str">
         <f>Contribution!G30</f>
@@ -14852,8 +14889,8 @@
       </c>
       <c r="L30" s="114"/>
       <c r="M30" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D30="SW","1W",D30),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_004aa#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D30="SW","1W",D30),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00475#0013</v>
       </c>
       <c r="N30" s="66"/>
       <c r="O30" s="66"/>
@@ -14882,15 +14919,15 @@
       <c r="F31" s="78"/>
       <c r="G31" s="78">
         <f>_xll.qlSwapStartDate(M31)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H31" s="78">
         <f>_xll.qlSwapMaturityDate(M31)</f>
-        <v>44582</v>
+        <v>44707</v>
       </c>
       <c r="I31" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M31,InterestRatesTrigger)</f>
-        <v>1.1095890411350455E-3</v>
+        <v>2.786301369862972E-3</v>
       </c>
       <c r="J31" s="63" t="str">
         <f>Contribution!G31</f>
@@ -14902,8 +14939,8 @@
       </c>
       <c r="L31" s="114"/>
       <c r="M31" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D31="SW","1W",D31),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_00491#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D31="SW","1W",D31),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00462#0011</v>
       </c>
       <c r="N31" s="66"/>
       <c r="O31" s="66"/>
@@ -14932,15 +14969,15 @@
       <c r="F32" s="78"/>
       <c r="G32" s="78">
         <f>_xll.qlSwapStartDate(M32)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H32" s="78">
         <f>_xll.qlSwapMaturityDate(M32)</f>
-        <v>44949</v>
+        <v>45072</v>
       </c>
       <c r="I32" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M32,InterestRatesTrigger)</f>
-        <v>1.4301369863313179E-3</v>
+        <v>3.3534246575342183E-3</v>
       </c>
       <c r="J32" s="63" t="str">
         <f>Contribution!G32</f>
@@ -14952,8 +14989,8 @@
       </c>
       <c r="L32" s="114"/>
       <c r="M32" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D32="SW","1W",D32),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_0049f#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D32="SW","1W",D32),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00460#0011</v>
       </c>
       <c r="N32" s="66"/>
       <c r="O32" s="66"/>
@@ -14982,15 +15019,15 @@
       <c r="F33" s="78"/>
       <c r="G33" s="78">
         <f>_xll.qlSwapStartDate(M33)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H33" s="78">
         <f>_xll.qlSwapMaturityDate(M33)</f>
-        <v>45313</v>
+        <v>45439</v>
       </c>
       <c r="I33" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M33,InterestRatesTrigger)</f>
-        <v>1.7260273972836099E-3</v>
+        <v>3.8712328767123551E-3</v>
       </c>
       <c r="J33" s="63" t="str">
         <f>Contribution!G33</f>
@@ -15002,8 +15039,8 @@
       </c>
       <c r="L33" s="114"/>
       <c r="M33" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D33="SW","1W",D33),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_0048e#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D33="SW","1W",D33),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00455#0011</v>
       </c>
       <c r="N33" s="66"/>
       <c r="O33" s="66"/>
@@ -15032,15 +15069,15 @@
       <c r="F34" s="78"/>
       <c r="G34" s="78">
         <f>_xll.qlSwapStartDate(M34)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H34" s="78">
         <f>_xll.qlSwapMaturityDate(M34)</f>
-        <v>45678</v>
+        <v>45803</v>
       </c>
       <c r="I34" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M34,InterestRatesTrigger)</f>
-        <v>2.0465753424846137E-3</v>
+        <v>4.4630136986301893E-3</v>
       </c>
       <c r="J34" s="63" t="str">
         <f>Contribution!G34</f>
@@ -15052,8 +15089,8 @@
       </c>
       <c r="L34" s="114"/>
       <c r="M34" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D34="SW","1W",D34),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_004a4#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D34="SW","1W",D34),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_0046b#0013</v>
       </c>
       <c r="N34" s="66"/>
       <c r="O34" s="66"/>
@@ -15082,15 +15119,15 @@
       <c r="F35" s="78"/>
       <c r="G35" s="78">
         <f>_xll.qlSwapStartDate(M35)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H35" s="78">
         <f>_xll.qlSwapMaturityDate(M35)</f>
-        <v>46408</v>
+        <v>46533</v>
       </c>
       <c r="I35" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M35,InterestRatesTrigger)</f>
-        <v>2.983561643853157E-3</v>
+        <v>5.7698630136968094E-3</v>
       </c>
       <c r="J35" s="63" t="str">
         <f>Contribution!G35</f>
@@ -15102,8 +15139,8 @@
       </c>
       <c r="L35" s="114"/>
       <c r="M35" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D35="SW","1W",D35),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_004ac#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D35="SW","1W",D35),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00471#0013</v>
       </c>
       <c r="N35" s="66"/>
       <c r="O35" s="66"/>
@@ -15132,15 +15169,15 @@
       <c r="F36" s="78"/>
       <c r="G36" s="78">
         <f>_xll.qlSwapStartDate(M36)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H36" s="78">
         <f>_xll.qlSwapMaturityDate(M36)</f>
-        <v>47504</v>
+        <v>47630</v>
       </c>
       <c r="I36" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M36,InterestRatesTrigger)</f>
-        <v>4.7095890410926459E-3</v>
+        <v>7.8410958904125486E-3</v>
       </c>
       <c r="J36" s="63" t="str">
         <f>Contribution!G36</f>
@@ -15152,8 +15189,8 @@
       </c>
       <c r="L36" s="114"/>
       <c r="M36" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D36="SW","1W",D36),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_0048c#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D36="SW","1W",D36),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_00467#0011</v>
       </c>
       <c r="N36" s="66"/>
       <c r="O36" s="66"/>
@@ -15182,15 +15219,15 @@
       <c r="F37" s="78"/>
       <c r="G37" s="78">
         <f>_xll.qlSwapStartDate(M37)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H37" s="78">
         <f>_xll.qlSwapMaturityDate(M37)</f>
-        <v>49331</v>
+        <v>49457</v>
       </c>
       <c r="I37" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M37,InterestRatesTrigger)</f>
-        <v>7.076712328763354E-3</v>
+        <v>1.0528767123287599E-2</v>
       </c>
       <c r="J37" s="63" t="str">
         <f>Contribution!G37</f>
@@ -15202,8 +15239,8 @@
       </c>
       <c r="L37" s="114"/>
       <c r="M37" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D37="SW","1W",D37),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_004a8#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D37="SW","1W",D37),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_0045a#0011</v>
       </c>
       <c r="N37" s="66"/>
       <c r="O37" s="66"/>
@@ -15232,15 +15269,15 @@
       <c r="F38" s="78"/>
       <c r="G38" s="78">
         <f>_xll.qlSwapStartDate(M38)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H38" s="78">
         <f>_xll.qlSwapMaturityDate(M38)</f>
-        <v>51158</v>
+        <v>51284</v>
       </c>
       <c r="I38" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M38,InterestRatesTrigger)</f>
-        <v>8.3342465753430527E-3</v>
+        <v>1.2032876712319472E-2</v>
       </c>
       <c r="J38" s="63" t="str">
         <f>Contribution!G38</f>
@@ -15252,8 +15289,8 @@
       </c>
       <c r="L38" s="114"/>
       <c r="M38" s="36" t="str">
-        <f>_xll.qlMakeOIS(,IF(D38="SW","1W",D38),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_00498#0000</v>
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D38="SW","1W",D38),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_0046f#0013</v>
       </c>
       <c r="N38" s="66"/>
       <c r="O38" s="66"/>
@@ -15282,15 +15319,15 @@
       <c r="F39" s="78"/>
       <c r="G39" s="78">
         <f>_xll.qlSwapStartDate(M39)</f>
-        <v>42025</v>
+        <v>42150</v>
       </c>
       <c r="H39" s="78">
         <f>_xll.qlSwapMaturityDate(M39)</f>
-        <v>52985</v>
+        <v>53108</v>
       </c>
       <c r="I39" s="77">
         <f>_xll.qlOvernightIndexedSwapFairRate(M39,InterestRatesTrigger)</f>
-        <v>9.0246575342497765E-3</v>
+        <v>1.2772602739706949E-2</v>
       </c>
       <c r="J39" s="65" t="str">
         <f>Contribution!G39</f>
@@ -15301,9 +15338,9 @@
         <v>JPY30YOIS=ICAP</v>
       </c>
       <c r="L39" s="114"/>
-      <c r="M39" s="38" t="str">
-        <f>_xll.qlMakeOIS(,IF(D39="SW","1W",D39),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
-        <v>obj_004a7#0000</v>
+      <c r="M39" s="36" t="str">
+        <f>_xll.qlMakeOIS(,SettlementDays,IF(D39="SW","1W",D39),OvernightIndex,,ForwardStart,FixDayCounter,,,Trigger)</f>
+        <v>obj_0046c#0013</v>
       </c>
       <c r="N39" s="66"/>
       <c r="O39" s="66"/>
@@ -17056,7 +17093,8 @@
       <c r="Z101" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <sheetProtection password="C760" sheet="1" objects="1" scenarios="1"/>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P9">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
@@ -17268,7 +17306,7 @@
       <c r="A6" s="110"/>
       <c r="B6" s="70">
         <f t="shared" ref="B6:B14" si="0">H6-EvaluationDate</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="84"/>
       <c r="D6" s="33" t="s">
@@ -17279,19 +17317,19 @@
       </c>
       <c r="F6" s="75">
         <f t="shared" ref="F6:F14" si="1">EvaluationDate</f>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G6" s="75">
         <f>EvaluationDate</f>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="H6" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"1D","f",TRUE,Trigger)</f>
-        <v>42024</v>
+        <v>42150</v>
       </c>
       <c r="I6" s="85">
         <f>_xll.qlInterpolationInterpolate($M$6,B6,TRUE)</f>
-        <v>2.4566604161018585E-4</v>
+        <v>9.7551040174748648E-4</v>
       </c>
       <c r="J6" s="104" t="str">
         <f>Contribution!K6</f>
@@ -17301,7 +17339,7 @@
       <c r="L6" s="110"/>
       <c r="M6" s="22" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B14,I8:I14,,Trigger)</f>
-        <v>obj_004d3#0000</v>
+        <v>obj_0049b#0014</v>
       </c>
       <c r="N6" s="110"/>
       <c r="O6" s="110"/>
@@ -17321,7 +17359,7 @@
       <c r="A7" s="110"/>
       <c r="B7" s="96">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="86"/>
       <c r="D7" s="36" t="s">
@@ -17332,19 +17370,19 @@
       </c>
       <c r="F7" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G7" s="78">
         <f>H6</f>
-        <v>42024</v>
+        <v>42150</v>
       </c>
       <c r="H7" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f",TRUE,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="I7" s="83">
         <f>_xll.qlInterpolationInterpolate($M$6,B7,TRUE)</f>
-        <v>2.4641735790604797E-4</v>
+        <v>9.7560093827559098E-4</v>
       </c>
       <c r="J7" s="106" t="str">
         <f>Contribution!K7</f>
@@ -17373,7 +17411,7 @@
       <c r="A8" s="110"/>
       <c r="B8" s="97">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="87"/>
       <c r="D8" s="33" t="s">
@@ -17384,19 +17422,19 @@
       </c>
       <c r="F8" s="75">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G8" s="75">
         <f>_xll.qlInterestRateIndexValueDate(M8,F8,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H8" s="75">
         <f>_xll.qlInterestRateIndexMaturity(M8,G8,Trigger)</f>
-        <v>42026</v>
+        <v>42152</v>
       </c>
       <c r="I8" s="76">
         <f>_xll.qlIndexFixing(M8,F8,TRUE,InterestRatesTrigger)</f>
-        <v>2.4711586896764004E-4</v>
+        <v>9.7568517936963417E-4</v>
       </c>
       <c r="J8" s="64" t="str">
         <f>Contribution!K8</f>
@@ -17406,7 +17444,7 @@
       <c r="L8" s="110"/>
       <c r="M8" s="34" t="str">
         <f>_xll.qlLibor(,Currency,D8,YieldCurve,,Trigger)</f>
-        <v>obj_004af#0000</v>
+        <v>obj_00476#0010</v>
       </c>
       <c r="N8" s="110"/>
       <c r="O8" s="110"/>
@@ -17426,7 +17464,7 @@
       <c r="A9" s="110"/>
       <c r="B9" s="96">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="36" t="s">
@@ -17437,19 +17475,19 @@
       </c>
       <c r="F9" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G9" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M9,F9,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H9" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M9,G9,Trigger)</f>
-        <v>42032</v>
+        <v>42158</v>
       </c>
       <c r="I9" s="77">
         <f>_xll.qlIndexFixing(M9,F9,TRUE,InterestRatesTrigger)</f>
-        <v>2.5315511853664569E-4</v>
+        <v>9.7641096612604325E-4</v>
       </c>
       <c r="J9" s="63" t="str">
         <f>Contribution!K9</f>
@@ -17459,7 +17497,7 @@
       <c r="L9" s="110"/>
       <c r="M9" s="37" t="str">
         <f>_xll.qlLibor(,Currency,D9,YieldCurve,,Trigger)</f>
-        <v>obj_004b3#0000</v>
+        <v>obj_00479#0010</v>
       </c>
       <c r="N9" s="110"/>
       <c r="O9" s="110"/>
@@ -17479,7 +17517,7 @@
       <c r="A10" s="110"/>
       <c r="B10" s="96">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="88"/>
       <c r="D10" s="36" t="s">
@@ -17490,19 +17528,19 @@
       </c>
       <c r="F10" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G10" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M10,F10,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H10" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M10,G10,Trigger)</f>
-        <v>42039</v>
+        <v>42165</v>
       </c>
       <c r="I10" s="77">
         <f>_xll.qlIndexFixing(M10,F10,TRUE,InterestRatesTrigger)</f>
-        <v>2.716494839015228E-4</v>
+        <v>9.7861870400427014E-4</v>
       </c>
       <c r="J10" s="63" t="str">
         <f>Contribution!K10</f>
@@ -17512,7 +17550,7 @@
       <c r="L10" s="110"/>
       <c r="M10" s="37" t="str">
         <f>_xll.qlLibor(,Currency,D10,YieldCurve,,Trigger)</f>
-        <v>obj_004b0#0000</v>
+        <v>obj_00478#0010</v>
       </c>
       <c r="N10" s="110"/>
       <c r="O10" s="110"/>
@@ -17532,7 +17570,7 @@
       <c r="A11" s="110"/>
       <c r="B11" s="96">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="88"/>
       <c r="D11" s="36" t="s">
@@ -17543,19 +17581,19 @@
       </c>
       <c r="F11" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G11" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M11,F11,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H11" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M11,G11,Trigger)</f>
-        <v>42047</v>
+        <v>42172</v>
       </c>
       <c r="I11" s="77">
         <f>_xll.qlIndexFixing(M11,F11,TRUE,InterestRatesTrigger)</f>
-        <v>3.0788321364383364E-4</v>
+        <v>9.8229220001450849E-4</v>
       </c>
       <c r="J11" s="63" t="str">
         <f>Contribution!K11</f>
@@ -17565,7 +17603,7 @@
       <c r="L11" s="110"/>
       <c r="M11" s="37" t="str">
         <f>_xll.qlLibor(,Currency,D11,YieldCurve,,Trigger)</f>
-        <v>obj_004b1#0000</v>
+        <v>obj_0047a#0010</v>
       </c>
       <c r="N11" s="110"/>
       <c r="O11" s="110"/>
@@ -17585,7 +17623,7 @@
       <c r="A12" s="110"/>
       <c r="B12" s="96">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" s="88"/>
       <c r="D12" s="36" t="s">
@@ -17596,19 +17634,19 @@
       </c>
       <c r="F12" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G12" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M12,F12,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H12" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M12,G12,Trigger)</f>
-        <v>42058</v>
+        <v>42184</v>
       </c>
       <c r="I12" s="77">
         <f>_xll.qlIndexFixing(M12,F12,TRUE,InterestRatesTrigger)</f>
-        <v>3.8400000004495445E-4</v>
+        <v>9.9200000000107297E-4</v>
       </c>
       <c r="J12" s="63" t="str">
         <f>Contribution!K12</f>
@@ -17618,7 +17656,7 @@
       <c r="L12" s="110"/>
       <c r="M12" s="37" t="str">
         <f>_xll.qlLibor(,Currency,D12,YieldCurve,,Trigger)</f>
-        <v>obj_004b2#0000</v>
+        <v>obj_00477#0010</v>
       </c>
       <c r="N12" s="110"/>
       <c r="O12" s="110"/>
@@ -17638,7 +17676,7 @@
       <c r="A13" s="110"/>
       <c r="B13" s="96">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C13" s="88"/>
       <c r="D13" s="36" t="s">
@@ -17649,19 +17687,19 @@
       </c>
       <c r="F13" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G13" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M13,F13,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H13" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M13,G13,Trigger)</f>
-        <v>42086</v>
+        <v>42212</v>
       </c>
       <c r="I13" s="77">
         <f>_xll.qlIndexFixing(M13,F13,TRUE,InterestRatesTrigger)</f>
-        <v>6.0300000004117303E-4</v>
+        <v>1.0139999951186054E-3</v>
       </c>
       <c r="J13" s="63" t="str">
         <f>Contribution!K13</f>
@@ -17671,7 +17709,7 @@
       <c r="L13" s="110"/>
       <c r="M13" s="37" t="str">
         <f>_xll.qlLibor(,Currency,D13,YieldCurve,,Trigger)</f>
-        <v>obj_004ae#0000</v>
+        <v>obj_0047b#0010</v>
       </c>
       <c r="N13" s="110"/>
       <c r="O13" s="110"/>
@@ -17691,7 +17729,7 @@
       <c r="A14" s="110"/>
       <c r="B14" s="96">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C14" s="88"/>
       <c r="D14" s="36" t="s">
@@ -17702,19 +17740,19 @@
       </c>
       <c r="F14" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G14" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M14,F14,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H14" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M14,G14,Trigger)</f>
-        <v>42115</v>
+        <v>42243</v>
       </c>
       <c r="I14" s="77">
         <f>_xll.qlIndexFixing(M14,F14,TRUE,InterestRatesTrigger)</f>
-        <v>6.9900000004530227E-4</v>
+        <v>1.0070000000009843E-3</v>
       </c>
       <c r="J14" s="63" t="str">
         <f>Contribution!K14</f>
@@ -17757,19 +17795,19 @@
       </c>
       <c r="F15" s="75">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G15)</f>
-        <v>42054</v>
+        <v>42180</v>
       </c>
       <c r="G15" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B15&amp;"M","mf",TRUE)</f>
-        <v>42058</v>
+        <v>42184</v>
       </c>
       <c r="H15" s="75">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G15,Trigger)</f>
-        <v>42150</v>
+        <v>42276</v>
       </c>
       <c r="I15" s="76">
         <f>_xll.qlIndexFixing(IborIndex,F15,TRUE,InterestRatesTrigger)</f>
-        <v>9.5000000001751908E-4</v>
+        <v>1.0000000000004693E-3</v>
       </c>
       <c r="J15" s="64" t="str">
         <f>Contribution!K15</f>
@@ -17812,19 +17850,19 @@
       </c>
       <c r="F16" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G16)</f>
-        <v>42082</v>
+        <v>42208</v>
       </c>
       <c r="G16" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B16&amp;"M","mf",TRUE)</f>
-        <v>42086</v>
+        <v>42212</v>
       </c>
       <c r="H16" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G16,Trigger)</f>
-        <v>42178</v>
+        <v>42304</v>
       </c>
       <c r="I16" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F16,TRUE,InterestRatesTrigger)</f>
-        <v>1.0000000000265352E-3</v>
+        <v>9.9999999676305892E-4</v>
       </c>
       <c r="J16" s="63" t="str">
         <f>Contribution!K16</f>
@@ -17867,19 +17905,19 @@
       </c>
       <c r="F17" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G17)</f>
-        <v>42111</v>
+        <v>42241</v>
       </c>
       <c r="G17" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B17&amp;"M","mf",TRUE)</f>
-        <v>42115</v>
+        <v>42243</v>
       </c>
       <c r="H17" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G17,Trigger)</f>
-        <v>42206</v>
+        <v>42335</v>
       </c>
       <c r="I17" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F17,TRUE,InterestRatesTrigger)</f>
-        <v>9.5000000004114081E-4</v>
+        <v>1.0000000000004693E-3</v>
       </c>
       <c r="J17" s="63" t="str">
         <f>Contribution!K17</f>
@@ -17922,19 +17960,19 @@
       </c>
       <c r="F18" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G18)</f>
-        <v>42143</v>
+        <v>42271</v>
       </c>
       <c r="G18" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B18&amp;"M","mf",TRUE)</f>
-        <v>42145</v>
+        <v>42275</v>
       </c>
       <c r="H18" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G18,Trigger)</f>
-        <v>42237</v>
+        <v>42367</v>
       </c>
       <c r="I18" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F18,TRUE,InterestRatesTrigger)</f>
-        <v>8.9999999999981403E-4</v>
+        <v>1.0500000000025346E-3</v>
       </c>
       <c r="J18" s="63" t="str">
         <f>Contribution!K18</f>
@@ -17977,19 +18015,19 @@
       </c>
       <c r="F19" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G19)</f>
-        <v>42173</v>
+        <v>42300</v>
       </c>
       <c r="G19" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B19&amp;"M","mf",TRUE)</f>
-        <v>42177</v>
+        <v>42304</v>
       </c>
       <c r="H19" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G19,Trigger)</f>
-        <v>42271</v>
+        <v>42396</v>
       </c>
       <c r="I19" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F19,TRUE,InterestRatesTrigger)</f>
-        <v>8.5000000188279021E-4</v>
+        <v>1.0499999966426135E-3</v>
       </c>
       <c r="J19" s="63" t="str">
         <f>Contribution!K19</f>
@@ -18032,19 +18070,19 @@
       </c>
       <c r="F20" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G20)</f>
-        <v>42202</v>
+        <v>42333</v>
       </c>
       <c r="G20" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B20&amp;"M","mf",TRUE)</f>
-        <v>42206</v>
+        <v>42335</v>
       </c>
       <c r="H20" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G20,Trigger)</f>
-        <v>42298</v>
+        <v>42429</v>
       </c>
       <c r="I20" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F20,TRUE,InterestRatesTrigger)</f>
-        <v>8.5000000003858562E-4</v>
+        <v>1.0500000000005008E-3</v>
       </c>
       <c r="J20" s="63" t="str">
         <f>Contribution!K20</f>
@@ -18087,19 +18125,19 @@
       </c>
       <c r="F21" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G21)</f>
-        <v>42235</v>
+        <v>42361</v>
       </c>
       <c r="G21" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B21&amp;"M","mf",TRUE)</f>
-        <v>42237</v>
+        <v>42367</v>
       </c>
       <c r="H21" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G21,Trigger)</f>
-        <v>42332</v>
+        <v>42458</v>
       </c>
       <c r="I21" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F21,TRUE,InterestRatesTrigger)</f>
-        <v>8.0380154360809879E-4</v>
+        <v>1.0304302052904963E-3</v>
       </c>
       <c r="J21" s="63"/>
       <c r="K21" s="63"/>
@@ -18136,19 +18174,19 @@
       </c>
       <c r="F22" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G22)</f>
-        <v>42264</v>
+        <v>42394</v>
       </c>
       <c r="G22" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B22&amp;"M","mf",TRUE)</f>
-        <v>42268</v>
+        <v>42396</v>
       </c>
       <c r="H22" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G22,Trigger)</f>
-        <v>42359</v>
+        <v>42487</v>
       </c>
       <c r="I22" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F22,TRUE,InterestRatesTrigger)</f>
-        <v>7.7375299580001629E-4</v>
+        <v>1.0535437008501953E-3</v>
       </c>
       <c r="J22" s="63"/>
       <c r="K22" s="63"/>
@@ -18185,19 +18223,19 @@
       </c>
       <c r="F23" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G23)</f>
-        <v>42296</v>
+        <v>42425</v>
       </c>
       <c r="G23" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B23&amp;"M","mf",TRUE)</f>
-        <v>42298</v>
+        <v>42429</v>
       </c>
       <c r="H23" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G23,Trigger)</f>
-        <v>42390</v>
+        <v>42521</v>
       </c>
       <c r="I23" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F23,TRUE,InterestRatesTrigger)</f>
-        <v>8.0000000053264526E-4</v>
+        <v>1.1000000000185018E-3</v>
       </c>
       <c r="J23" s="63" t="str">
         <f>Contribution!K23</f>
@@ -18240,19 +18278,19 @@
       </c>
       <c r="F24" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G24)</f>
-        <v>42388</v>
+        <v>42515</v>
       </c>
       <c r="G24" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B24&amp;"M","mf",TRUE)</f>
-        <v>42390</v>
+        <v>42517</v>
       </c>
       <c r="H24" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G24,Trigger)</f>
-        <v>42481</v>
+        <v>42612</v>
       </c>
       <c r="I24" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F24,TRUE,InterestRatesTrigger)</f>
-        <v>8.0000000052438613E-4</v>
+        <v>1.0999999999285325E-3</v>
       </c>
       <c r="J24" s="63" t="str">
         <f>Contribution!K24</f>
@@ -18298,19 +18336,19 @@
       </c>
       <c r="F25" s="75">
         <f t="shared" ref="F25" si="4">EvaluationDate</f>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G25" s="75">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H25" s="75">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
-        <v>42572</v>
+        <v>42702</v>
       </c>
       <c r="I25" s="76">
         <f>_xll.qlIndexFixing(M25,F25,TRUE,InterestRatesTrigger)</f>
-        <v>8.8320749045358443E-4</v>
+        <v>1.082131577166686E-3</v>
       </c>
       <c r="J25" s="64" t="str">
         <f>Contribution!K25</f>
@@ -18320,7 +18358,7 @@
       <c r="L25" s="110"/>
       <c r="M25" s="37" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004bd#0000</v>
+        <v>obj_00494#0013</v>
       </c>
       <c r="N25" s="110"/>
       <c r="O25" s="37" t="s">
@@ -18354,19 +18392,19 @@
       </c>
       <c r="F26" s="78">
         <f t="shared" ref="F26:F39" si="5">EvaluationDate</f>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G26" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H26" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
-        <v>42758</v>
+        <v>42885</v>
       </c>
       <c r="I26" s="77">
         <f>_xll.qlIndexFixing(M26,F26,TRUE,InterestRatesTrigger)</f>
-        <v>7.7047221946833599E-4</v>
+        <v>1.1197625992922695E-3</v>
       </c>
       <c r="J26" s="63" t="str">
         <f>Contribution!K26</f>
@@ -18376,7 +18414,7 @@
       <c r="L26" s="110"/>
       <c r="M26" s="37" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004ba#0000</v>
+        <v>obj_00498#0013</v>
       </c>
       <c r="N26" s="110"/>
       <c r="O26" s="111"/>
@@ -18404,19 +18442,19 @@
       </c>
       <c r="F27" s="78">
         <f t="shared" si="5"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G27" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H27" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
-        <v>43122</v>
+        <v>43249</v>
       </c>
       <c r="I27" s="77">
         <f>_xll.qlIndexFixing(M27,F27,TRUE,InterestRatesTrigger)</f>
-        <v>7.9546719154074161E-4</v>
+        <v>1.344751533826149E-3</v>
       </c>
       <c r="J27" s="63" t="str">
         <f>Contribution!K27</f>
@@ -18426,7 +18464,7 @@
       <c r="L27" s="110"/>
       <c r="M27" s="37" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c2#0000</v>
+        <v>obj_00495#0013</v>
       </c>
       <c r="N27" s="110"/>
       <c r="O27" s="110"/>
@@ -18454,19 +18492,19 @@
       </c>
       <c r="F28" s="78">
         <f t="shared" si="5"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G28" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H28" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
-        <v>43486</v>
+        <v>43613</v>
       </c>
       <c r="I28" s="77">
         <f>_xll.qlIndexFixing(M28,F28,TRUE,InterestRatesTrigger)</f>
-        <v>8.9477161995146434E-4</v>
+        <v>1.7443812455002132E-3</v>
       </c>
       <c r="J28" s="63" t="str">
         <f>Contribution!K28</f>
@@ -18476,7 +18514,7 @@
       <c r="L28" s="110"/>
       <c r="M28" s="37" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004cb#0000</v>
+        <v>obj_0048a#0013</v>
       </c>
       <c r="N28" s="110"/>
       <c r="O28" s="110"/>
@@ -18504,19 +18542,19 @@
       </c>
       <c r="F29" s="78">
         <f t="shared" si="5"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G29" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H29" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
-        <v>43851</v>
+        <v>43978</v>
       </c>
       <c r="I29" s="77">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,InterestRatesTrigger)</f>
-        <v>1.144411514862462E-3</v>
+        <v>2.2940019201576696E-3</v>
       </c>
       <c r="J29" s="63" t="str">
         <f>Contribution!K29</f>
@@ -18526,7 +18564,7 @@
       <c r="L29" s="110"/>
       <c r="M29" s="37" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b9#0000</v>
+        <v>obj_0047d#0013</v>
       </c>
       <c r="N29" s="110"/>
       <c r="O29" s="110"/>
@@ -18554,19 +18592,19 @@
       </c>
       <c r="F30" s="78">
         <f t="shared" si="5"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G30" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M30,F30,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H30" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M30,G30,Trigger)</f>
-        <v>44217</v>
+        <v>44343</v>
       </c>
       <c r="I30" s="77">
         <f>_xll.qlIndexFixing(M30,F30,TRUE,InterestRatesTrigger)</f>
-        <v>1.5190497355302222E-3</v>
+        <v>2.893261043804891E-3</v>
       </c>
       <c r="J30" s="63" t="str">
         <f>Contribution!K30</f>
@@ -18576,7 +18614,7 @@
       <c r="L30" s="110"/>
       <c r="M30" s="37" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c5#0000</v>
+        <v>obj_0048e#0013</v>
       </c>
       <c r="N30" s="110"/>
       <c r="O30" s="110"/>
@@ -18604,19 +18642,19 @@
       </c>
       <c r="F31" s="78">
         <f t="shared" si="5"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G31" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M31,F31,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H31" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M31,G31,Trigger)</f>
-        <v>44582</v>
+        <v>44708</v>
       </c>
       <c r="I31" s="77">
         <f>_xll.qlIndexFixing(M31,F31,TRUE,InterestRatesTrigger)</f>
-        <v>1.943683259189196E-3</v>
+        <v>3.5428695906710591E-3</v>
       </c>
       <c r="J31" s="63" t="str">
         <f>Contribution!K31</f>
@@ -18626,7 +18664,7 @@
       <c r="L31" s="110"/>
       <c r="M31" s="37" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c3#0000</v>
+        <v>obj_00488#0013</v>
       </c>
       <c r="N31" s="110"/>
       <c r="O31" s="110"/>
@@ -18654,19 +18692,19 @@
       </c>
       <c r="F32" s="78">
         <f t="shared" si="5"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G32" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M32,F32,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H32" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M32,G32,Trigger)</f>
-        <v>44949</v>
+        <v>45076</v>
       </c>
       <c r="I32" s="77">
         <f>_xll.qlIndexFixing(M32,F32,TRUE,InterestRatesTrigger)</f>
-        <v>2.3929603448656798E-3</v>
+        <v>4.1671158687233431E-3</v>
       </c>
       <c r="J32" s="63" t="str">
         <f>Contribution!K32</f>
@@ -18676,7 +18714,7 @@
       <c r="L32" s="110"/>
       <c r="M32" s="37" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c4#0000</v>
+        <v>obj_0048d#0013</v>
       </c>
       <c r="N32" s="110"/>
       <c r="O32" s="110"/>
@@ -18704,19 +18742,19 @@
       </c>
       <c r="F33" s="78">
         <f t="shared" si="5"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G33" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M33,F33,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H33" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M33,G33,Trigger)</f>
-        <v>45313</v>
+        <v>45440</v>
       </c>
       <c r="I33" s="77">
         <f>_xll.qlIndexFixing(M33,F33,TRUE,InterestRatesTrigger)</f>
-        <v>2.8418826067681262E-3</v>
+        <v>4.7913594879901876E-3</v>
       </c>
       <c r="J33" s="63" t="str">
         <f>Contribution!K33</f>
@@ -18726,7 +18764,7 @@
       <c r="L33" s="110"/>
       <c r="M33" s="37" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004d1#0000</v>
+        <v>obj_00480#0013</v>
       </c>
       <c r="N33" s="110"/>
       <c r="O33" s="110"/>
@@ -18754,19 +18792,19 @@
       </c>
       <c r="F34" s="78">
         <f t="shared" si="5"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G34" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M34,F34,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H34" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M34,G34,Trigger)</f>
-        <v>45678</v>
+        <v>45804</v>
       </c>
       <c r="I34" s="77">
         <f>_xll.qlIndexFixing(M34,F34,TRUE,InterestRatesTrigger)</f>
-        <v>3.2907960870195716E-3</v>
+        <v>5.4409513177083937E-3</v>
       </c>
       <c r="J34" s="63" t="str">
         <f>Contribution!K34</f>
@@ -18776,7 +18814,7 @@
       <c r="L34" s="110"/>
       <c r="M34" s="37" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b7#0000</v>
+        <v>obj_0048f#0013</v>
       </c>
       <c r="N34" s="110"/>
       <c r="O34" s="110"/>
@@ -18804,19 +18842,19 @@
       </c>
       <c r="F35" s="78">
         <f t="shared" si="5"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G35" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M35,F35,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H35" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M35,G35,Trigger)</f>
-        <v>46408</v>
+        <v>46534</v>
       </c>
       <c r="I35" s="77">
         <f>_xll.qlIndexFixing(M35,F35,TRUE,InterestRatesTrigger)</f>
-        <v>4.3418598704126066E-3</v>
+        <v>6.8545266202302661E-3</v>
       </c>
       <c r="J35" s="63" t="str">
         <f>Contribution!K35</f>
@@ -18826,7 +18864,7 @@
       <c r="L35" s="110"/>
       <c r="M35" s="37" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c1#0000</v>
+        <v>obj_00492#0013</v>
       </c>
       <c r="N35" s="110"/>
       <c r="O35" s="110"/>
@@ -18854,19 +18892,19 @@
       </c>
       <c r="F36" s="78">
         <f t="shared" si="5"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G36" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M36,F36,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H36" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M36,G36,Trigger)</f>
-        <v>47504</v>
+        <v>47631</v>
       </c>
       <c r="I36" s="77">
         <f>_xll.qlIndexFixing(M36,F36,TRUE,InterestRatesTrigger)</f>
-        <v>6.0626695128014971E-3</v>
+        <v>8.965306696592101E-3</v>
       </c>
       <c r="J36" s="63" t="str">
         <f>Contribution!K36</f>
@@ -18876,7 +18914,7 @@
       <c r="L36" s="110"/>
       <c r="M36" s="37" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b8#0000</v>
+        <v>obj_00497#0013</v>
       </c>
       <c r="N36" s="110"/>
       <c r="O36" s="110"/>
@@ -18904,19 +18942,19 @@
       </c>
       <c r="F37" s="78">
         <f t="shared" si="5"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G37" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M37,F37,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H37" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M37,G37,Trigger)</f>
-        <v>49331</v>
+        <v>49458</v>
       </c>
       <c r="I37" s="77">
         <f>_xll.qlIndexFixing(M37,F37,TRUE,InterestRatesTrigger)</f>
-        <v>8.4870438973055698E-3</v>
+        <v>1.1715085732188777E-2</v>
       </c>
       <c r="J37" s="63" t="str">
         <f>Contribution!K37</f>
@@ -18926,7 +18964,7 @@
       <c r="L37" s="110"/>
       <c r="M37" s="37" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004cd#0000</v>
+        <v>obj_00482#0013</v>
       </c>
       <c r="N37" s="110"/>
       <c r="O37" s="110"/>
@@ -18954,19 +18992,19 @@
       </c>
       <c r="F38" s="78">
         <f t="shared" si="5"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G38" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M38,F38,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H38" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M38,G38,Trigger)</f>
-        <v>51158</v>
+        <v>51285</v>
       </c>
       <c r="I38" s="77">
         <f>_xll.qlIndexFixing(M38,F38,TRUE,InterestRatesTrigger)</f>
-        <v>9.7843234738785156E-3</v>
+        <v>1.3201884481927816E-2</v>
       </c>
       <c r="J38" s="63" t="str">
         <f>Contribution!K38</f>
@@ -18976,7 +19014,7 @@
       <c r="L38" s="110"/>
       <c r="M38" s="37" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004ce#0000</v>
+        <v>obj_0047c#0013</v>
       </c>
       <c r="N38" s="110"/>
       <c r="O38" s="110"/>
@@ -19004,19 +19042,19 @@
       </c>
       <c r="F39" s="79">
         <f t="shared" si="5"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G39" s="79">
         <f>_xll.qlInterestRateIndexValueDate(M39,F39,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H39" s="79">
         <f>_xll.qlInterestRateIndexMaturity(M39,G39,Trigger)</f>
-        <v>52985</v>
+        <v>53112</v>
       </c>
       <c r="I39" s="80">
         <f>_xll.qlIndexFixing(M39,F39,TRUE,InterestRatesTrigger)</f>
-        <v>1.0486829673407697E-2</v>
+        <v>1.4039515208045091E-2</v>
       </c>
       <c r="J39" s="65" t="str">
         <f>Contribution!K39</f>
@@ -19026,7 +19064,7 @@
       <c r="L39" s="110"/>
       <c r="M39" s="39" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c6#0000</v>
+        <v>obj_0047f#0013</v>
       </c>
       <c r="N39" s="110"/>
       <c r="O39" s="110"/>
@@ -20779,6 +20817,7 @@
       <c r="Z101" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection password="C760" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q25">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
@@ -20993,7 +21032,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="71">
         <f t="shared" ref="B6:B17" si="0">H6-EvaluationDate</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="23" t="s">
@@ -21004,19 +21043,19 @@
       </c>
       <c r="F6" s="75">
         <f t="shared" ref="F6:F17" si="1">EvaluationDate</f>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G6" s="75">
         <f>EvaluationDate</f>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="H6" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"1D","f",TRUE,Trigger)</f>
-        <v>42024</v>
+        <v>42150</v>
       </c>
       <c r="I6" s="85">
         <f>_xll.qlInterpolationInterpolate($M$6,B6,TRUE)</f>
-        <v>1.8940879399272626E-3</v>
+        <v>1.5963375351220133E-3</v>
       </c>
       <c r="J6" s="101" t="str">
         <f>Contribution!O6</f>
@@ -21026,7 +21065,7 @@
       <c r="L6" s="66"/>
       <c r="M6" s="22" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B17,I8:I17,,Trigger)</f>
-        <v>obj_004d2#0000</v>
+        <v>obj_0049a#0014</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="110"/>
@@ -21046,7 +21085,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="72">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="24" t="s">
@@ -21057,19 +21096,19 @@
       </c>
       <c r="F7" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G7" s="78">
         <f>H6</f>
-        <v>42024</v>
+        <v>42150</v>
       </c>
       <c r="H7" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f",TRUE,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="I7" s="83">
         <f>_xll.qlInterpolationInterpolate($M$6,B7,TRUE)</f>
-        <v>1.8939384423715666E-3</v>
+        <v>1.5962460235468474E-3</v>
       </c>
       <c r="J7" s="102" t="str">
         <f>Contribution!O7</f>
@@ -21098,7 +21137,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="71">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="23" t="s">
@@ -21109,19 +21148,19 @@
       </c>
       <c r="F8" s="75">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G8" s="75">
         <f>_xll.qlInterestRateIndexValueDate(M8,F8,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H8" s="75">
         <f>_xll.qlInterestRateIndexMaturity(M8,G8,Trigger)</f>
-        <v>42026</v>
+        <v>42152</v>
       </c>
       <c r="I8" s="76">
         <f>_xll.qlIndexFixing(M8,F8,TRUE,InterestRatesTrigger)</f>
-        <v>1.8937995117696005E-3</v>
+        <v>1.5961611228743067E-3</v>
       </c>
       <c r="J8" s="101" t="str">
         <f>Contribution!O8</f>
@@ -21131,7 +21170,7 @@
       <c r="L8" s="66"/>
       <c r="M8" s="34" t="str">
         <f>_xll.qlLibor(,Currency,D8,YieldCurve,,Trigger)</f>
-        <v>obj_00487#0000</v>
+        <v>obj_0044e#0010</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="110"/>
@@ -21151,7 +21190,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="72">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="24" t="s">
@@ -21162,19 +21201,19 @@
       </c>
       <c r="F9" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G9" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M9,F9,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H9" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M9,G9,Trigger)</f>
-        <v>42032</v>
+        <v>42158</v>
       </c>
       <c r="I9" s="77">
         <f>_xll.qlIndexFixing(M9,F9,TRUE,InterestRatesTrigger)</f>
-        <v>1.8925960847772569E-3</v>
+        <v>1.5954203372471807E-3</v>
       </c>
       <c r="J9" s="102" t="str">
         <f>Contribution!O9</f>
@@ -21184,7 +21223,7 @@
       <c r="L9" s="66"/>
       <c r="M9" s="37" t="str">
         <f>_xll.qlLibor(,Currency,D9,YieldCurve,,Trigger)</f>
-        <v>obj_0049b#0000</v>
+        <v>obj_0044d#0010</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="110"/>
@@ -21204,7 +21243,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="72">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="24" t="s">
@@ -21215,19 +21254,19 @@
       </c>
       <c r="F10" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G10" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M10,F10,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H10" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M10,G10,Trigger)</f>
-        <v>42039</v>
+        <v>42165</v>
       </c>
       <c r="I10" s="77">
         <f>_xll.qlIndexFixing(M10,F10,TRUE,InterestRatesTrigger)</f>
-        <v>1.888853744334007E-3</v>
+        <v>1.5931113348636014E-3</v>
       </c>
       <c r="J10" s="102" t="str">
         <f>Contribution!O10</f>
@@ -21237,7 +21276,7 @@
       <c r="L10" s="66"/>
       <c r="M10" s="37" t="str">
         <f>_xll.qlLibor(,Currency,D10,YieldCurve,,Trigger)</f>
-        <v>obj_00495#0000</v>
+        <v>obj_00450#0010</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="110"/>
@@ -21257,7 +21296,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="72">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="24" t="s">
@@ -21268,19 +21307,19 @@
       </c>
       <c r="F11" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G11" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M11,F11,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H11" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M11,G11,Trigger)</f>
-        <v>42047</v>
+        <v>42172</v>
       </c>
       <c r="I11" s="77">
         <f>_xll.qlIndexFixing(M11,F11,TRUE,InterestRatesTrigger)</f>
-        <v>1.8814929180509634E-3</v>
+        <v>1.5892463081116201E-3</v>
       </c>
       <c r="J11" s="102" t="str">
         <f>Contribution!O11</f>
@@ -21290,7 +21329,7 @@
       <c r="L11" s="66"/>
       <c r="M11" s="37" t="str">
         <f>_xll.qlLibor(,Currency,D11,YieldCurve,,Trigger)</f>
-        <v>obj_00497#0000</v>
+        <v>obj_0045e#0010</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="110"/>
@@ -21310,7 +21349,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="72">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="24" t="s">
@@ -21321,19 +21360,19 @@
       </c>
       <c r="F12" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G12" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M12,F12,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H12" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M12,G12,Trigger)</f>
-        <v>42058</v>
+        <v>42184</v>
       </c>
       <c r="I12" s="77">
         <f>_xll.qlIndexFixing(M12,F12,TRUE,InterestRatesTrigger)</f>
-        <v>1.865999999998248E-3</v>
+        <v>1.5790000000000376E-3</v>
       </c>
       <c r="J12" s="102" t="str">
         <f>Contribution!O12</f>
@@ -21343,7 +21382,7 @@
       <c r="L12" s="66"/>
       <c r="M12" s="37" t="str">
         <f>_xll.qlLibor(,Currency,D12,YieldCurve,,Trigger)</f>
-        <v>obj_0048a#0000</v>
+        <v>obj_00458#0010</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="110"/>
@@ -21363,7 +21402,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="72">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="24" t="s">
@@ -21374,19 +21413,19 @@
       </c>
       <c r="F13" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G13" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M13,F13,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H13" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M13,G13,Trigger)</f>
-        <v>42086</v>
+        <v>42212</v>
       </c>
       <c r="I13" s="77">
         <f>_xll.qlIndexFixing(M13,F13,TRUE,InterestRatesTrigger)</f>
-        <v>1.777999999998583E-3</v>
+        <v>1.5390000000006013E-3</v>
       </c>
       <c r="J13" s="102" t="str">
         <f>Contribution!O13</f>
@@ -21396,7 +21435,7 @@
       <c r="L13" s="66"/>
       <c r="M13" s="37" t="str">
         <f>_xll.qlLibor(,Currency,D13,YieldCurve,,Trigger)</f>
-        <v>obj_00490#0000</v>
+        <v>obj_0044f#0010</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="110"/>
@@ -21416,7 +21455,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="72">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="24" t="s">
@@ -21427,19 +21466,19 @@
       </c>
       <c r="F14" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G14" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M14,F14,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H14" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M14,G14,Trigger)</f>
-        <v>42115</v>
+        <v>42243</v>
       </c>
       <c r="I14" s="77">
         <f>_xll.qlIndexFixing(M14,F14,TRUE,InterestRatesTrigger)</f>
-        <v>1.6230000000003741E-3</v>
+        <v>1.4790000000004619E-3</v>
       </c>
       <c r="J14" s="102" t="str">
         <f>Contribution!O14</f>
@@ -21449,7 +21488,7 @@
       <c r="L14" s="66"/>
       <c r="M14" s="37" t="str">
         <f>_xll.qlLibor(,Currency,D14,YieldCurve,,Trigger)</f>
-        <v>obj_0049a#0000</v>
+        <v>obj_00456#0010</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="110"/>
@@ -21469,7 +21508,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="72">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="24" t="s">
@@ -21480,19 +21519,19 @@
       </c>
       <c r="F15" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G15" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M15,F15,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H15" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M15,G15,Trigger)</f>
-        <v>42145</v>
+        <v>42275</v>
       </c>
       <c r="I15" s="77">
         <f>_xll.qlIndexFixing(M15,F15,TRUE,InterestRatesTrigger)</f>
-        <v>1.5260000000001384E-3</v>
+        <v>1.4319999999996343E-3</v>
       </c>
       <c r="J15" s="102" t="str">
         <f>Contribution!O15</f>
@@ -21502,7 +21541,7 @@
       <c r="L15" s="66"/>
       <c r="M15" s="37" t="str">
         <f>_xll.qlLibor(,Currency,D15,YieldCurve,,Trigger)</f>
-        <v>obj_00486#0000</v>
+        <v>obj_00452#0010</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="110"/>
@@ -21522,7 +21561,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="72">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="24" t="s">
@@ -21533,19 +21572,19 @@
       </c>
       <c r="F16" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G16" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M16,F16,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H16" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M16,G16,Trigger)</f>
-        <v>42177</v>
+        <v>42304</v>
       </c>
       <c r="I16" s="77">
         <f>_xll.qlIndexFixing(M16,F16,TRUE,InterestRatesTrigger)</f>
-        <v>1.4640000000051103E-3</v>
+        <v>1.4199999999999508E-3</v>
       </c>
       <c r="J16" s="102" t="str">
         <f>Contribution!O16</f>
@@ -21555,7 +21594,7 @@
       <c r="L16" s="66"/>
       <c r="M16" s="37" t="str">
         <f>_xll.qlLibor(,Currency,D16,YieldCurve,,Trigger)</f>
-        <v>obj_00485#0000</v>
+        <v>obj_0045c#0010</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="110"/>
@@ -21575,7 +21614,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="72">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="24" t="s">
@@ -21586,19 +21625,19 @@
       </c>
       <c r="F17" s="78">
         <f t="shared" si="1"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G17" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M17,F17,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H17" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M17,G17,Trigger)</f>
-        <v>42206</v>
+        <v>42335</v>
       </c>
       <c r="I17" s="77">
         <f>_xll.qlIndexFixing(M17,F17,TRUE,InterestRatesTrigger)</f>
-        <v>1.4160000000098772E-3</v>
+        <v>1.392999999999968E-3</v>
       </c>
       <c r="J17" s="102" t="str">
         <f>Contribution!O17</f>
@@ -21641,19 +21680,19 @@
       </c>
       <c r="F18" s="75">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G18,Trigger)</f>
-        <v>42054</v>
+        <v>42180</v>
       </c>
       <c r="G18" s="75">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B18&amp;"M","mf",TRUE,Trigger)</f>
-        <v>42058</v>
+        <v>42184</v>
       </c>
       <c r="H18" s="75">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G18,Trigger)</f>
-        <v>42240</v>
+        <v>42367</v>
       </c>
       <c r="I18" s="76">
         <f>_xll.qlIndexFixing(IborIndex,F18,TRUE,InterestRatesTrigger)</f>
-        <v>1.3000000000344299E-3</v>
+        <v>1.3499999999999988E-3</v>
       </c>
       <c r="J18" s="101" t="str">
         <f>Contribution!O18</f>
@@ -21696,19 +21735,19 @@
       </c>
       <c r="F19" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G19,Trigger)</f>
-        <v>42082</v>
+        <v>42208</v>
       </c>
       <c r="G19" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B19&amp;"M","mf",TRUE)</f>
-        <v>42086</v>
+        <v>42212</v>
       </c>
       <c r="H19" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G19,Trigger)</f>
-        <v>42271</v>
+        <v>42396</v>
       </c>
       <c r="I19" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F19,TRUE,InterestRatesTrigger)</f>
-        <v>1.2500000000465368E-3</v>
+        <v>1.3500000000001555E-3</v>
       </c>
       <c r="J19" s="102" t="str">
         <f>Contribution!O19</f>
@@ -21751,19 +21790,19 @@
       </c>
       <c r="F20" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G20,Trigger)</f>
-        <v>42111</v>
+        <v>42241</v>
       </c>
       <c r="G20" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B20&amp;"M","mf",TRUE)</f>
-        <v>42115</v>
+        <v>42243</v>
       </c>
       <c r="H20" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G20,Trigger)</f>
-        <v>42298</v>
+        <v>42429</v>
       </c>
       <c r="I20" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F20,TRUE,InterestRatesTrigger)</f>
-        <v>1.2000000000803718E-3</v>
+        <v>1.3500000000000339E-3</v>
       </c>
       <c r="J20" s="102" t="str">
         <f>Contribution!O20</f>
@@ -21806,19 +21845,19 @@
       </c>
       <c r="F21" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G21,Trigger)</f>
-        <v>42143</v>
+        <v>42271</v>
       </c>
       <c r="G21" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B21&amp;"M","mf",TRUE)</f>
-        <v>42145</v>
+        <v>42275</v>
       </c>
       <c r="H21" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G21,Trigger)</f>
-        <v>42332</v>
+        <v>42458</v>
       </c>
       <c r="I21" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F21,TRUE,InterestRatesTrigger)</f>
-        <v>1.1500000003105001E-3</v>
+        <v>1.3499999999999988E-3</v>
       </c>
       <c r="J21" s="102" t="str">
         <f>Contribution!O21</f>
@@ -21861,19 +21900,19 @@
       </c>
       <c r="F22" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G22,Trigger)</f>
-        <v>42173</v>
+        <v>42300</v>
       </c>
       <c r="G22" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B22&amp;"M","mf",TRUE)</f>
-        <v>42177</v>
+        <v>42304</v>
       </c>
       <c r="H22" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G22,Trigger)</f>
-        <v>42360</v>
+        <v>42487</v>
       </c>
       <c r="I22" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F22,TRUE,InterestRatesTrigger)</f>
-        <v>1.100000000395748E-3</v>
+        <v>1.3499999999999988E-3</v>
       </c>
       <c r="J22" s="102" t="str">
         <f>Contribution!O22</f>
@@ -21916,19 +21955,19 @@
       </c>
       <c r="F23" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G23,Trigger)</f>
-        <v>42202</v>
+        <v>42333</v>
       </c>
       <c r="G23" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B23&amp;"M","mf",TRUE)</f>
-        <v>42206</v>
+        <v>42335</v>
       </c>
       <c r="H23" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G23,Trigger)</f>
-        <v>42390</v>
+        <v>42517</v>
       </c>
       <c r="I23" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F23,TRUE,InterestRatesTrigger)</f>
-        <v>1.1000000004729208E-3</v>
+        <v>1.3499999999998405E-3</v>
       </c>
       <c r="J23" s="102" t="str">
         <f>Contribution!O23</f>
@@ -21971,19 +22010,19 @@
       </c>
       <c r="F24" s="78">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G24,Trigger)</f>
-        <v>42296</v>
+        <v>42425</v>
       </c>
       <c r="G24" s="78">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B24&amp;"M","mf",TRUE)</f>
-        <v>42298</v>
+        <v>42429</v>
       </c>
       <c r="H24" s="78">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G24,Trigger)</f>
-        <v>42481</v>
+        <v>42613</v>
       </c>
       <c r="I24" s="77">
         <f>_xll.qlIndexFixing(IborIndex,F24,TRUE,InterestRatesTrigger)</f>
-        <v>9.9549160112348024E-4</v>
+        <v>1.3457812043351698E-3</v>
       </c>
       <c r="J24" s="102"/>
       <c r="K24" s="102"/>
@@ -22023,19 +22062,19 @@
       </c>
       <c r="F25" s="75">
         <f t="shared" ref="F25" si="4">EvaluationDate</f>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G25" s="75">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H25" s="75">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
-        <v>42572</v>
+        <v>42702</v>
       </c>
       <c r="I25" s="76">
         <f>_xll.qlIndexFixing(M25,F25,TRUE,InterestRatesTrigger)</f>
-        <v>1.149999999999992E-3</v>
+        <v>1.4249999999999979E-3</v>
       </c>
       <c r="J25" s="101" t="str">
         <f>Contribution!O25</f>
@@ -22048,7 +22087,7 @@
       <c r="L25" s="66"/>
       <c r="M25" s="95" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004bf#0000</v>
+        <v>obj_00481#0013</v>
       </c>
       <c r="N25" s="121"/>
       <c r="O25" s="34" t="s">
@@ -22082,19 +22121,19 @@
       </c>
       <c r="F26" s="78">
         <f t="shared" ref="F26:F39" si="6">EvaluationDate</f>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G26" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H26" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
-        <v>42758</v>
+        <v>42885</v>
       </c>
       <c r="I26" s="77">
         <f>_xll.qlIndexFixing(M26,F26,TRUE,InterestRatesTrigger)</f>
-        <v>1.0999999999997754E-3</v>
+        <v>1.5000000000000503E-3</v>
       </c>
       <c r="J26" s="102" t="str">
         <f>Contribution!O26</f>
@@ -22107,7 +22146,7 @@
       <c r="L26" s="66"/>
       <c r="M26" s="62" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004bc#0000</v>
+        <v>obj_00486#0013</v>
       </c>
       <c r="N26" s="121"/>
       <c r="O26" s="111"/>
@@ -22135,19 +22174,19 @@
       </c>
       <c r="F27" s="78">
         <f t="shared" si="6"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G27" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H27" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
-        <v>43122</v>
+        <v>43249</v>
       </c>
       <c r="I27" s="77">
         <f>_xll.qlIndexFixing(M27,F27,TRUE,InterestRatesTrigger)</f>
-        <v>1.1250000000001281E-3</v>
+        <v>1.7250000000560753E-3</v>
       </c>
       <c r="J27" s="102" t="str">
         <f>Contribution!O27</f>
@@ -22160,7 +22199,7 @@
       <c r="L27" s="66"/>
       <c r="M27" s="62" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c8#0000</v>
+        <v>obj_0048b#0013</v>
       </c>
       <c r="N27" s="121"/>
       <c r="O27" s="110"/>
@@ -22188,19 +22227,19 @@
       </c>
       <c r="F28" s="78">
         <f t="shared" si="6"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G28" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H28" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
-        <v>43486</v>
+        <v>43613</v>
       </c>
       <c r="I28" s="77">
         <f>_xll.qlIndexFixing(M28,F28,TRUE,InterestRatesTrigger)</f>
-        <v>1.2749999999191247E-3</v>
+        <v>2.1500000000803836E-3</v>
       </c>
       <c r="J28" s="102" t="str">
         <f>Contribution!O28</f>
@@ -22213,7 +22252,7 @@
       <c r="L28" s="66"/>
       <c r="M28" s="62" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b4#0000</v>
+        <v>obj_00483#0013</v>
       </c>
       <c r="N28" s="121"/>
       <c r="O28" s="110"/>
@@ -22241,19 +22280,19 @@
       </c>
       <c r="F29" s="78">
         <f t="shared" si="6"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G29" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H29" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
-        <v>43851</v>
+        <v>43978</v>
       </c>
       <c r="I29" s="77">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,InterestRatesTrigger)</f>
-        <v>1.5500000000000273E-3</v>
+        <v>2.7250000001110639E-3</v>
       </c>
       <c r="J29" s="102" t="str">
         <f>Contribution!O29</f>
@@ -22266,7 +22305,7 @@
       <c r="L29" s="66"/>
       <c r="M29" s="62" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c9#0000</v>
+        <v>obj_00485#0013</v>
       </c>
       <c r="N29" s="121"/>
       <c r="O29" s="110"/>
@@ -22294,19 +22333,19 @@
       </c>
       <c r="F30" s="78">
         <f t="shared" si="6"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G30" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M30,F30,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H30" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M30,G30,Trigger)</f>
-        <v>44217</v>
+        <v>44343</v>
       </c>
       <c r="I30" s="77">
         <f>_xll.qlIndexFixing(M30,F30,TRUE,InterestRatesTrigger)</f>
-        <v>1.9499999999991924E-3</v>
+        <v>3.3750000001316082E-3</v>
       </c>
       <c r="J30" s="102" t="str">
         <f>Contribution!O30</f>
@@ -22319,7 +22358,7 @@
       <c r="L30" s="66"/>
       <c r="M30" s="62" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c7#0000</v>
+        <v>obj_0047e#0013</v>
       </c>
       <c r="N30" s="121"/>
       <c r="O30" s="110"/>
@@ -22347,19 +22386,19 @@
       </c>
       <c r="F31" s="78">
         <f t="shared" si="6"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G31" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M31,F31,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H31" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M31,G31,Trigger)</f>
-        <v>44582</v>
+        <v>44708</v>
       </c>
       <c r="I31" s="77">
         <f>_xll.qlIndexFixing(M31,F31,TRUE,InterestRatesTrigger)</f>
-        <v>2.4000000000002379E-3</v>
+        <v>4.0500000001415203E-3</v>
       </c>
       <c r="J31" s="102" t="str">
         <f>Contribution!O31</f>
@@ -22372,7 +22411,7 @@
       <c r="L31" s="66"/>
       <c r="M31" s="62" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c0#0000</v>
+        <v>obj_00489#0013</v>
       </c>
       <c r="N31" s="121"/>
       <c r="O31" s="110"/>
@@ -22400,19 +22439,19 @@
       </c>
       <c r="F32" s="78">
         <f t="shared" si="6"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G32" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M32,F32,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H32" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M32,G32,Trigger)</f>
-        <v>44949</v>
+        <v>45076</v>
       </c>
       <c r="I32" s="77">
         <f>_xll.qlIndexFixing(M32,F32,TRUE,InterestRatesTrigger)</f>
-        <v>2.8999999999843552E-3</v>
+        <v>4.7250000001416697E-3</v>
       </c>
       <c r="J32" s="102" t="str">
         <f>Contribution!O32</f>
@@ -22425,7 +22464,7 @@
       <c r="L32" s="66"/>
       <c r="M32" s="62" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004bb#0000</v>
+        <v>obj_00491#0013</v>
       </c>
       <c r="N32" s="121"/>
       <c r="O32" s="110"/>
@@ -22453,19 +22492,19 @@
       </c>
       <c r="F33" s="78">
         <f t="shared" si="6"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G33" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M33,F33,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H33" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M33,G33,Trigger)</f>
-        <v>45313</v>
+        <v>45440</v>
       </c>
       <c r="I33" s="77">
         <f>_xll.qlIndexFixing(M33,F33,TRUE,InterestRatesTrigger)</f>
-        <v>3.4250000000510331E-3</v>
+        <v>5.4000000001196737E-3</v>
       </c>
       <c r="J33" s="102" t="str">
         <f>Contribution!O33</f>
@@ -22478,7 +22517,7 @@
       <c r="L33" s="66"/>
       <c r="M33" s="62" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004cc#0000</v>
+        <v>obj_00499#0013</v>
       </c>
       <c r="N33" s="121"/>
       <c r="O33" s="110"/>
@@ -22506,19 +22545,19 @@
       </c>
       <c r="F34" s="78">
         <f t="shared" si="6"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G34" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M34,F34,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H34" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M34,G34,Trigger)</f>
-        <v>45678</v>
+        <v>45804</v>
       </c>
       <c r="I34" s="77">
         <f>_xll.qlIndexFixing(M34,F34,TRUE,InterestRatesTrigger)</f>
-        <v>3.9499999998386564E-3</v>
+        <v>6.0750000000495286E-3</v>
       </c>
       <c r="J34" s="102" t="str">
         <f>Contribution!O34</f>
@@ -22531,7 +22570,7 @@
       <c r="L34" s="66"/>
       <c r="M34" s="62" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004cf#0000</v>
+        <v>obj_00490#0013</v>
       </c>
       <c r="N34" s="121"/>
       <c r="O34" s="110"/>
@@ -22559,19 +22598,19 @@
       </c>
       <c r="F35" s="78">
         <f t="shared" si="6"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G35" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M35,F35,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H35" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M35,G35,Trigger)</f>
-        <v>46408</v>
+        <v>46534</v>
       </c>
       <c r="I35" s="77">
         <f>_xll.qlIndexFixing(M35,F35,TRUE,InterestRatesTrigger)</f>
-        <v>5.0750003309864749E-3</v>
+        <v>7.4999999999810643E-3</v>
       </c>
       <c r="J35" s="102" t="str">
         <f>Contribution!O35</f>
@@ -22584,7 +22623,7 @@
       <c r="L35" s="66"/>
       <c r="M35" s="62" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b5#0000</v>
+        <v>obj_0048c#0013</v>
       </c>
       <c r="N35" s="121"/>
       <c r="O35" s="110"/>
@@ -22612,19 +22651,19 @@
       </c>
       <c r="F36" s="78">
         <f t="shared" si="6"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G36" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M36,F36,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H36" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M36,G36,Trigger)</f>
-        <v>47504</v>
+        <v>47631</v>
       </c>
       <c r="I36" s="77">
         <f>_xll.qlIndexFixing(M36,F36,TRUE,InterestRatesTrigger)</f>
-        <v>6.9250003632417871E-3</v>
+        <v>9.6249999999892151E-3</v>
       </c>
       <c r="J36" s="102" t="str">
         <f>Contribution!O36</f>
@@ -22637,7 +22676,7 @@
       <c r="L36" s="66"/>
       <c r="M36" s="62" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004be#0000</v>
+        <v>obj_00484#0013</v>
       </c>
       <c r="N36" s="121"/>
       <c r="O36" s="110"/>
@@ -22665,19 +22704,19 @@
       </c>
       <c r="F37" s="78">
         <f t="shared" si="6"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G37" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M37,F37,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H37" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M37,G37,Trigger)</f>
-        <v>49331</v>
+        <v>49458</v>
       </c>
       <c r="I37" s="77">
         <f>_xll.qlIndexFixing(M37,F37,TRUE,InterestRatesTrigger)</f>
-        <v>9.3750005387835279E-3</v>
+        <v>1.2375000000003722E-2</v>
       </c>
       <c r="J37" s="102" t="str">
         <f>Contribution!O37</f>
@@ -22690,7 +22729,7 @@
       <c r="L37" s="66"/>
       <c r="M37" s="62" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004ca#0000</v>
+        <v>obj_00487#0013</v>
       </c>
       <c r="N37" s="121"/>
       <c r="O37" s="110"/>
@@ -22718,19 +22757,19 @@
       </c>
       <c r="F38" s="78">
         <f t="shared" si="6"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G38" s="78">
         <f>_xll.qlInterestRateIndexValueDate(M38,F38,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H38" s="78">
         <f>_xll.qlInterestRateIndexMaturity(M38,G38,Trigger)</f>
-        <v>51158</v>
+        <v>51285</v>
       </c>
       <c r="I38" s="77">
         <f>_xll.qlIndexFixing(M38,F38,TRUE,InterestRatesTrigger)</f>
-        <v>1.0675000465323289E-2</v>
+        <v>1.392499999996176E-2</v>
       </c>
       <c r="J38" s="102" t="str">
         <f>Contribution!O38</f>
@@ -22743,7 +22782,7 @@
       <c r="L38" s="66"/>
       <c r="M38" s="62" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004d0#0000</v>
+        <v>obj_00493#0013</v>
       </c>
       <c r="N38" s="121"/>
       <c r="O38" s="110"/>
@@ -22771,19 +22810,19 @@
       </c>
       <c r="F39" s="79">
         <f t="shared" si="6"/>
-        <v>42023</v>
+        <v>42146</v>
       </c>
       <c r="G39" s="79">
         <f>_xll.qlInterestRateIndexValueDate(M39,F39,Trigger)</f>
-        <v>42025</v>
+        <v>42151</v>
       </c>
       <c r="H39" s="79">
         <f>_xll.qlInterestRateIndexMaturity(M39,G39,Trigger)</f>
-        <v>52985</v>
+        <v>53112</v>
       </c>
       <c r="I39" s="80">
         <f>_xll.qlIndexFixing(M39,F39,TRUE,InterestRatesTrigger)</f>
-        <v>1.137500046393135E-2</v>
+        <v>1.4724999999963488E-2</v>
       </c>
       <c r="J39" s="103" t="str">
         <f>Contribution!O39</f>
@@ -22796,7 +22835,7 @@
       <c r="L39" s="66"/>
       <c r="M39" s="109" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b6#0000</v>
+        <v>obj_00496#0013</v>
       </c>
       <c r="N39" s="121"/>
       <c r="O39" s="110"/>
@@ -24549,6 +24588,7 @@
       <c r="Z101" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection password="C760" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P25">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted,Half-Month Modified Following"</formula1>
